--- a/doc/input_data.xlsx
+++ b/doc/input_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33660" windowHeight="19780" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -1620,11 +1620,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1179">
@@ -3141,8 +3141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3215,7 +3215,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="2" customFormat="1" ht="28">
@@ -3293,7 +3293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
@@ -3334,14 +3334,14 @@
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
       <c r="P1" s="8"/>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
     </row>
     <row r="2" spans="1:22" s="11" customFormat="1" ht="15">
       <c r="A2" s="11" t="s">
@@ -3553,7 +3553,7 @@
       <c r="B9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="21" t="s">
         <v>67</v>
       </c>
       <c r="D9" t="s">

--- a/doc/input_data.xlsx
+++ b/doc/input_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="110">
   <si>
     <t>type</t>
   </si>
@@ -306,6 +306,54 @@
   </si>
   <si>
     <t>O &amp; M Costs for Construction per Affected Floor Area ($/ft^2).</t>
+  </si>
+  <si>
+    <t>Rotate Building Relative to Current Orientation</t>
+  </si>
+  <si>
+    <t>RotateBuilding</t>
+  </si>
+  <si>
+    <t>Number of Degrees to Rotate Building (positive value is clockwise).</t>
+  </si>
+  <si>
+    <t>relative_building_rotation</t>
+  </si>
+  <si>
+    <t>SetWindowToWallRatioByFacade</t>
+  </si>
+  <si>
+    <t>wwr</t>
+  </si>
+  <si>
+    <t>Sill Height (in).</t>
+  </si>
+  <si>
+    <t>sillHeight</t>
+  </si>
+  <si>
+    <t>Cardinal Direction.</t>
+  </si>
+  <si>
+    <t>facade</t>
+  </si>
+  <si>
+    <t>South</t>
+  </si>
+  <si>
+    <t>Set South WWR</t>
+  </si>
+  <si>
+    <t>South WWR</t>
+  </si>
+  <si>
+    <t>Set West WWR</t>
+  </si>
+  <si>
+    <t>West WWR</t>
+  </si>
+  <si>
+    <t>West</t>
   </si>
 </sst>
 </file>
@@ -399,8 +447,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1179">
+  <cellStyleXfs count="1195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1627,7 +1691,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1179">
+  <cellStyles count="1195">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2217,6 +2281,14 @@
     <cellStyle name="Followed Hyperlink" xfId="1174" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1176" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1194" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2806,6 +2878,14 @@
     <cellStyle name="Hyperlink" xfId="1173" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1175" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1193" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3141,7 +3221,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -3291,11 +3371,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:V31"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3758,7 +3838,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="2:14" customFormat="1">
+    <row r="17" spans="1:14" customFormat="1">
       <c r="B17" t="s">
         <v>28</v>
       </c>
@@ -3778,7 +3858,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="2:14" customFormat="1">
+    <row r="18" spans="1:14" customFormat="1">
       <c r="B18" t="s">
         <v>29</v>
       </c>
@@ -3814,7 +3894,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:14" customFormat="1">
+    <row r="19" spans="1:14" customFormat="1">
       <c r="B19" t="s">
         <v>28</v>
       </c>
@@ -3834,7 +3914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:14" customFormat="1">
+    <row r="20" spans="1:14" customFormat="1">
       <c r="B20" t="s">
         <v>28</v>
       </c>
@@ -3854,7 +3934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:14" customFormat="1">
+    <row r="21" spans="1:14" customFormat="1">
       <c r="B21" t="s">
         <v>28</v>
       </c>
@@ -3872,6 +3952,262 @@
       </c>
       <c r="H21">
         <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" t="b">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23"/>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23"/>
+      <c r="H23">
+        <v>90</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>259</v>
+      </c>
+      <c r="L23" s="1">
+        <v>180</v>
+      </c>
+      <c r="M23" s="3">
+        <f>(K23-J23)/6</f>
+        <v>43.166666666666664</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" t="b">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25"/>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25"/>
+      <c r="H25">
+        <v>0.4</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="M25" s="3">
+        <f>(K25-J25)/6</f>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26"/>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26"/>
+      <c r="H26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27"/>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s">
+        <v>82</v>
+      </c>
+      <c r="G27"/>
+      <c r="H27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" t="b">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29"/>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" t="s">
+        <v>84</v>
+      </c>
+      <c r="G29"/>
+      <c r="H29">
+        <v>0.4</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="M29" s="3">
+        <f>(K29-J29)/6</f>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30"/>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30"/>
+      <c r="H30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31"/>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31" t="s">
+        <v>82</v>
+      </c>
+      <c r="G31"/>
+      <c r="H31" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/doc/input_data.xlsx
+++ b/doc/input_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="112">
   <si>
     <t>type</t>
   </si>
@@ -74,9 +74,6 @@
     <t>lhs</t>
   </si>
   <si>
-    <t>Static Value</t>
-  </si>
-  <si>
     <t>Baseline</t>
   </si>
   <si>
@@ -354,6 +351,15 @@
   </si>
   <si>
     <t>West</t>
+  </si>
+  <si>
+    <t>|*Entire Building*|</t>
+  </si>
+  <si>
+    <t>|North,East,South,West|</t>
+  </si>
+  <si>
+    <t>Static/Default Value</t>
   </si>
 </sst>
 </file>
@@ -1644,7 +1650,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1657,21 +1663,11 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1685,10 +1681,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1195">
@@ -3198,12 +3203,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -3234,60 +3239,60 @@
     <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="19" customFormat="1">
-      <c r="A1" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="20"/>
+    <row r="1" spans="1:4" s="13" customFormat="1">
+      <c r="A1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="2" customFormat="1">
+      <c r="A6" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="2" customFormat="1">
-      <c r="A6" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3299,64 +3304,64 @@
       </c>
     </row>
     <row r="11" spans="1:4" s="2" customFormat="1" ht="28">
-      <c r="A11" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="18"/>
+      <c r="A11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="12"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="2" customFormat="1">
+      <c r="A14" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="2" customFormat="1">
-      <c r="A14" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>47</v>
+      <c r="B14" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="2" customFormat="1" ht="28">
-      <c r="A17" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="18" t="s">
+      <c r="A17" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="18"/>
+      <c r="B17" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3375,19 +3380,20 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="42.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.5" style="1"/>
-    <col min="8" max="9" width="11.5" style="5"/>
+    <col min="8" max="8" width="14" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="5"/>
     <col min="10" max="15" width="11.5" style="1"/>
     <col min="16" max="16" width="46.1640625" style="1" customWidth="1"/>
     <col min="17" max="19" width="11.5" style="1"/>
@@ -3396,133 +3402,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-    </row>
-    <row r="2" spans="1:22" s="11" customFormat="1" ht="15">
-      <c r="A2" s="11" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+    </row>
+    <row r="2" spans="1:22" s="9" customFormat="1" ht="15">
+      <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-    </row>
-    <row r="3" spans="1:22" s="11" customFormat="1" ht="15">
-      <c r="A3" s="11" t="s">
+      <c r="B2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:22" s="17" customFormat="1" ht="45">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="C3" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="15" t="s">
+      <c r="S3" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="T3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="U3" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="O3" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="P3" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q3" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="R3" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="S3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="T3" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="U3" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" s="6" customFormat="1">
-      <c r="A4" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:22">
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>2</v>
@@ -3541,13 +3545,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="C6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -3563,23 +3567,26 @@
     <row r="7" spans="1:22">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
         <v>63</v>
-      </c>
-      <c r="D7" t="s">
-        <v>64</v>
       </c>
       <c r="E7" t="s">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G7"/>
       <c r="H7" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="I7" t="s">
+        <v>109</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -3591,19 +3598,19 @@
     <row r="8" spans="1:22">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" t="s">
         <v>65</v>
-      </c>
-      <c r="D8" t="s">
-        <v>66</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G8"/>
       <c r="H8">
@@ -3623,7 +3630,7 @@
         <v>8.3333333333333339</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O8" s="4"/>
       <c r="P8" s="2"/>
@@ -3631,19 +3638,19 @@
     <row r="9" spans="1:22">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" t="s">
         <v>67</v>
-      </c>
-      <c r="D9" t="s">
-        <v>68</v>
       </c>
       <c r="E9" t="s">
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G9"/>
       <c r="H9">
@@ -3659,19 +3666,19 @@
     <row r="10" spans="1:22">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
         <v>69</v>
-      </c>
-      <c r="D10" t="s">
-        <v>70</v>
       </c>
       <c r="E10" t="s">
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G10"/>
       <c r="H10">
@@ -3687,19 +3694,19 @@
     <row r="11" spans="1:22">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" t="s">
         <v>71</v>
-      </c>
-      <c r="D11" t="s">
-        <v>72</v>
       </c>
       <c r="E11" t="s">
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G11"/>
       <c r="H11">
@@ -3715,19 +3722,19 @@
     <row r="12" spans="1:22">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" t="s">
         <v>73</v>
-      </c>
-      <c r="D12" t="s">
-        <v>74</v>
       </c>
       <c r="E12" t="s">
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G12"/>
       <c r="H12" t="b">
@@ -3743,19 +3750,19 @@
     <row r="13" spans="1:22">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" t="s">
         <v>75</v>
-      </c>
-      <c r="D13" t="s">
-        <v>76</v>
       </c>
       <c r="E13" t="s">
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G13"/>
       <c r="H13">
@@ -3771,19 +3778,19 @@
     <row r="14" spans="1:22">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" t="s">
         <v>77</v>
-      </c>
-      <c r="D14" t="s">
-        <v>78</v>
       </c>
       <c r="E14" t="s">
         <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G14"/>
       <c r="H14">
@@ -3799,19 +3806,19 @@
     <row r="15" spans="1:22">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" t="s">
         <v>79</v>
-      </c>
-      <c r="D15" t="s">
-        <v>80</v>
       </c>
       <c r="E15" t="s">
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G15"/>
       <c r="H15">
@@ -3829,50 +3836,53 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:14" customFormat="1">
       <c r="B17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" t="s">
         <v>63</v>
-      </c>
-      <c r="D17" t="s">
-        <v>64</v>
       </c>
       <c r="E17" t="s">
         <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H17" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="I17" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:14" customFormat="1">
       <c r="B18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" t="s">
         <v>90</v>
-      </c>
-      <c r="D18" t="s">
-        <v>91</v>
       </c>
       <c r="E18" t="s">
         <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H18">
         <v>30</v>
@@ -3891,24 +3901,24 @@
         <v>5</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:14" customFormat="1">
       <c r="B19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E19" t="s">
         <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -3916,19 +3926,19 @@
     </row>
     <row r="20" spans="1:14" customFormat="1">
       <c r="B20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E20" t="s">
         <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -3936,19 +3946,19 @@
     </row>
     <row r="21" spans="1:14" customFormat="1">
       <c r="B21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" t="s">
         <v>79</v>
-      </c>
-      <c r="D21" t="s">
-        <v>80</v>
       </c>
       <c r="E21" t="s">
         <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -3959,13 +3969,13 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" t="s">
         <v>94</v>
       </c>
-      <c r="C22" t="s">
-        <v>95</v>
-      </c>
       <c r="D22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E22"/>
       <c r="F22"/>
@@ -3975,19 +3985,19 @@
     <row r="23" spans="1:14">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" t="s">
         <v>96</v>
-      </c>
-      <c r="D23" t="s">
-        <v>97</v>
       </c>
       <c r="E23" t="s">
         <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G23"/>
       <c r="H23">
@@ -4007,7 +4017,7 @@
         <v>43.166666666666664</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -4015,13 +4025,13 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E24"/>
       <c r="F24"/>
@@ -4031,19 +4041,19 @@
     <row r="25" spans="1:14">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E25" t="s">
         <v>15</v>
       </c>
       <c r="F25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G25"/>
       <c r="H25">
@@ -4063,25 +4073,25 @@
         <v>0.13333333333333333</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" t="s">
         <v>100</v>
-      </c>
-      <c r="D26" t="s">
-        <v>101</v>
       </c>
       <c r="E26" t="s">
         <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G26"/>
       <c r="H26">
@@ -4091,23 +4101,26 @@
     <row r="27" spans="1:14">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" t="s">
         <v>102</v>
-      </c>
-      <c r="D27" t="s">
-        <v>103</v>
       </c>
       <c r="E27" t="s">
         <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G27"/>
       <c r="H27" t="s">
-        <v>104</v>
+        <v>103</v>
+      </c>
+      <c r="I27" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -4115,13 +4128,13 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E28"/>
       <c r="F28"/>
@@ -4131,19 +4144,19 @@
     <row r="29" spans="1:14">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E29" t="s">
         <v>15</v>
       </c>
       <c r="F29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G29"/>
       <c r="H29">
@@ -4163,25 +4176,25 @@
         <v>0.13333333333333333</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30"/>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" t="s">
         <v>100</v>
-      </c>
-      <c r="D30" t="s">
-        <v>101</v>
       </c>
       <c r="E30" t="s">
         <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G30"/>
       <c r="H30">
@@ -4191,23 +4204,26 @@
     <row r="31" spans="1:14">
       <c r="A31"/>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" t="s">
         <v>102</v>
-      </c>
-      <c r="D31" t="s">
-        <v>103</v>
       </c>
       <c r="E31" t="s">
         <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G31"/>
       <c r="H31" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="I31" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/doc/input_data.xlsx
+++ b/doc/input_data.xlsx
@@ -218,9 +218,6 @@
     <t>space_type</t>
   </si>
   <si>
-    <t>Lighting Power Reduction (%).</t>
-  </si>
-  <si>
     <t>lighting_power_reduction_percent</t>
   </si>
   <si>
@@ -293,9 +290,6 @@
     <t>ReduceSpaceInfiltrationByPercentage</t>
   </si>
   <si>
-    <t>Space Infiltration Power Reduction (%).</t>
-  </si>
-  <si>
     <t>space_infiltration_reduction_percent</t>
   </si>
   <si>
@@ -311,9 +305,6 @@
     <t>RotateBuilding</t>
   </si>
   <si>
-    <t>Number of Degrees to Rotate Building (positive value is clockwise).</t>
-  </si>
-  <si>
     <t>relative_building_rotation</t>
   </si>
   <si>
@@ -360,6 +351,15 @@
   </si>
   <si>
     <t>Static/Default Value</t>
+  </si>
+  <si>
+    <t>Number of Degrees to Rotate Building</t>
+  </si>
+  <si>
+    <t>Space Infiltration Power Reduction</t>
+  </si>
+  <si>
+    <t>Lighting Power Reduction</t>
   </si>
 </sst>
 </file>
@@ -1650,7 +1650,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1694,6 +1694,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1195">
@@ -3380,14 +3383,14 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="54.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="42.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
@@ -3421,7 +3424,7 @@
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R1" s="16"/>
       <c r="S1" s="16"/>
@@ -3465,7 +3468,7 @@
         <v>7</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>12</v>
@@ -3545,13 +3548,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
         <v>61</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -3579,14 +3582,14 @@
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G7"/>
       <c r="H7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -3601,16 +3604,16 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" t="s">
         <v>64</v>
-      </c>
-      <c r="D8" t="s">
-        <v>65</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G8"/>
       <c r="H8">
@@ -3641,16 +3644,16 @@
         <v>27</v>
       </c>
       <c r="C9" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" t="s">
         <v>66</v>
-      </c>
-      <c r="D9" t="s">
-        <v>67</v>
       </c>
       <c r="E9" t="s">
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G9"/>
       <c r="H9">
@@ -3669,16 +3672,16 @@
         <v>27</v>
       </c>
       <c r="C10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" t="s">
         <v>68</v>
-      </c>
-      <c r="D10" t="s">
-        <v>69</v>
       </c>
       <c r="E10" t="s">
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G10"/>
       <c r="H10">
@@ -3697,16 +3700,16 @@
         <v>27</v>
       </c>
       <c r="C11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" t="s">
         <v>70</v>
-      </c>
-      <c r="D11" t="s">
-        <v>71</v>
       </c>
       <c r="E11" t="s">
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G11"/>
       <c r="H11">
@@ -3725,16 +3728,16 @@
         <v>27</v>
       </c>
       <c r="C12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" t="s">
         <v>72</v>
-      </c>
-      <c r="D12" t="s">
-        <v>73</v>
       </c>
       <c r="E12" t="s">
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G12"/>
       <c r="H12" t="b">
@@ -3753,16 +3756,16 @@
         <v>27</v>
       </c>
       <c r="C13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" t="s">
         <v>74</v>
-      </c>
-      <c r="D13" t="s">
-        <v>75</v>
       </c>
       <c r="E13" t="s">
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G13"/>
       <c r="H13">
@@ -3781,16 +3784,16 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" t="s">
         <v>76</v>
-      </c>
-      <c r="D14" t="s">
-        <v>77</v>
       </c>
       <c r="E14" t="s">
         <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G14"/>
       <c r="H14">
@@ -3809,16 +3812,16 @@
         <v>27</v>
       </c>
       <c r="C15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" t="s">
         <v>78</v>
-      </c>
-      <c r="D15" t="s">
-        <v>79</v>
       </c>
       <c r="E15" t="s">
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G15"/>
       <c r="H15">
@@ -3836,13 +3839,13 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:14" customFormat="1">
@@ -3859,30 +3862,30 @@
         <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I17" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:14" customFormat="1">
       <c r="B18" t="s">
         <v>28</v>
       </c>
-      <c r="C18" t="s">
-        <v>89</v>
+      <c r="C18" s="20" t="s">
+        <v>110</v>
       </c>
       <c r="D18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E18" t="s">
         <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H18">
         <v>30</v>
@@ -3909,16 +3912,16 @@
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E19" t="s">
         <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -3929,16 +3932,16 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E20" t="s">
         <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -3949,16 +3952,16 @@
         <v>27</v>
       </c>
       <c r="C21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" t="s">
         <v>78</v>
-      </c>
-      <c r="D21" t="s">
-        <v>79</v>
       </c>
       <c r="E21" t="s">
         <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -3969,13 +3972,13 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E22"/>
       <c r="F22"/>
@@ -3988,16 +3991,16 @@
         <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="D23" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E23" t="s">
         <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G23"/>
       <c r="H23">
@@ -4025,13 +4028,13 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C24" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E24"/>
       <c r="F24"/>
@@ -4044,16 +4047,16 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E25" t="s">
         <v>15</v>
       </c>
       <c r="F25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G25"/>
       <c r="H25">
@@ -4082,16 +4085,16 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E26" t="s">
         <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G26"/>
       <c r="H26">
@@ -4104,23 +4107,23 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D27" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E27" t="s">
         <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G27"/>
       <c r="H27" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I27" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -4128,13 +4131,13 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E28"/>
       <c r="F28"/>
@@ -4147,16 +4150,16 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D29" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E29" t="s">
         <v>15</v>
       </c>
       <c r="F29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G29"/>
       <c r="H29">
@@ -4185,16 +4188,16 @@
         <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E30" t="s">
         <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G30"/>
       <c r="H30">
@@ -4207,23 +4210,23 @@
         <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D31" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E31" t="s">
         <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G31"/>
       <c r="H31" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I31" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/doc/input_data.xlsx
+++ b/doc/input_data.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19720" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
     <sheet name="Setup" sheetId="7" r:id="rId2"/>
     <sheet name="Variables" sheetId="2" r:id="rId3"/>
+    <sheet name="BCL Measure Data" sheetId="10" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$W$15</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="461">
   <si>
     <t>type</t>
   </si>
@@ -360,13 +361,1060 @@
   </si>
   <si>
     <t>Lighting Power Reduction</t>
+  </si>
+  <si>
+    <t>Add Cost per Area to Construction</t>
+  </si>
+  <si>
+    <t>AddCostPerAreaToConstruction</t>
+  </si>
+  <si>
+    <t>Choose a Construction to Add Costs to.</t>
+  </si>
+  <si>
+    <t>construction</t>
+  </si>
+  <si>
+    <t>Remove Existing Costs?</t>
+  </si>
+  <si>
+    <t>remove_costs</t>
+  </si>
+  <si>
+    <t>Material and Installation Costs for Construction per Area Used ($/ft^2).</t>
+  </si>
+  <si>
+    <t>material_cost_ip</t>
+  </si>
+  <si>
+    <t>Demolition Costs for Construction per Area Used ($/ft^2).</t>
+  </si>
+  <si>
+    <t>demolition_cost_ip</t>
+  </si>
+  <si>
+    <t>O &amp; M Costs for Construction per Area Used ($/ft^2).</t>
+  </si>
+  <si>
+    <t>om_cost_ip</t>
+  </si>
+  <si>
+    <t>Add Cost per Area to Unused Construction</t>
+  </si>
+  <si>
+    <t>AddCostPerAreaToUnusedConstruction</t>
+  </si>
+  <si>
+    <t>Add Cost per Floor Area to Building</t>
+  </si>
+  <si>
+    <t>AddCostPerFloorAreaToBuilding</t>
+  </si>
+  <si>
+    <t>Name for Life Cycle Cost Object.</t>
+  </si>
+  <si>
+    <t>lcc_name</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Material and Installation Costs for the Building per Floor Area ($/ft^2).</t>
+  </si>
+  <si>
+    <t>O &amp; M Costs for the Builiding per Floor Area Used ($/ft^2).</t>
+  </si>
+  <si>
+    <t>Add Cost per Floor Area to Electric Equipment</t>
+  </si>
+  <si>
+    <t>AddCostPerFloorAreaToElectricEquipment</t>
+  </si>
+  <si>
+    <t>Choose a Watts per Area Electric Equipment Definition to Add Costs to.</t>
+  </si>
+  <si>
+    <t>equip_def</t>
+  </si>
+  <si>
+    <t>Material and Installation Costs for Definition per Floor Area ($/ft^2).</t>
+  </si>
+  <si>
+    <t>Demolition Costs for Definition per Floor Area ($/ft^2).</t>
+  </si>
+  <si>
+    <t>Demolition Costs Occur During Initial Definition?</t>
+  </si>
+  <si>
+    <t>O &amp; M Costs for Definition per Floor Area ($/ft^2).</t>
+  </si>
+  <si>
+    <t>Add Cost per Floor Area to Lights</t>
+  </si>
+  <si>
+    <t>AddCostPerFloorAreaToLights</t>
+  </si>
+  <si>
+    <t>Choose a Watt per Area Lights Definition to Add Costs to.</t>
+  </si>
+  <si>
+    <t>lights_def</t>
+  </si>
+  <si>
+    <t>Add Cost per Floor Area to Unused Lights</t>
+  </si>
+  <si>
+    <t>AddCostPerFloorAreaToUnusedLights</t>
+  </si>
+  <si>
+    <t>Add Cost To Supply Side HVAC Component by Air Loop</t>
+  </si>
+  <si>
+    <t>AddCostToSupplySideHVACComponentByAirLoop</t>
+  </si>
+  <si>
+    <t>Select an HVAC Air Loop Supply Side Component Type.</t>
+  </si>
+  <si>
+    <t>hvac_comp_type</t>
+  </si>
+  <si>
+    <t>Choose an Air Loop to Add Costs to.</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>Material and Installation Costs per Component ($).</t>
+  </si>
+  <si>
+    <t>material_cost</t>
+  </si>
+  <si>
+    <t>Demolition Costs per Component ($).</t>
+  </si>
+  <si>
+    <t>O &amp; M Costs per Component ($).</t>
+  </si>
+  <si>
+    <t>Add Daylight Sensor at Center of Spaces with a Specified Space Type Assigned</t>
+  </si>
+  <si>
+    <t>AddDaylightSensors</t>
+  </si>
+  <si>
+    <t>Add Daylight Sensors to Spaces of This Space Type</t>
+  </si>
+  <si>
+    <t>Daylighting Setpoint (fc)</t>
+  </si>
+  <si>
+    <t>setpoint</t>
+  </si>
+  <si>
+    <t>Daylighting Control Type</t>
+  </si>
+  <si>
+    <t>control_type</t>
+  </si>
+  <si>
+    <t>Daylighting Minimum Input Power Fraction(min = 0 max = 0.6)</t>
+  </si>
+  <si>
+    <t>min_power_fraction</t>
+  </si>
+  <si>
+    <t>Daylighting Minimum Light Output Fraction (min = 0 max = 0.6)</t>
+  </si>
+  <si>
+    <t>min_light_fraction</t>
+  </si>
+  <si>
+    <t>Sensor Height (inches)</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>Material and Installation Costs per Space for Daylight Sensor ($).</t>
+  </si>
+  <si>
+    <t>Demolition Costs per Space for Daylight Sensor ($).</t>
+  </si>
+  <si>
+    <t>O &amp; M Costs per Space for Daylight Sensor ($).</t>
+  </si>
+  <si>
+    <t>Add Exterior Lights</t>
+  </si>
+  <si>
+    <t>AddExteriorLights</t>
+  </si>
+  <si>
+    <t>Exterior Lighting Design Power (W)</t>
+  </si>
+  <si>
+    <t>ext_lighting_level</t>
+  </si>
+  <si>
+    <t>End-Use SubCategory</t>
+  </si>
+  <si>
+    <t>end_use_subcategory</t>
+  </si>
+  <si>
+    <t>Remove Existing Exterior Lights in the Project?</t>
+  </si>
+  <si>
+    <t>remove_existing_ext_lights</t>
+  </si>
+  <si>
+    <t>Material and Installation Costs for Exterior Lights ($).</t>
+  </si>
+  <si>
+    <t>Demolition Costs for Exterior Lights ($).</t>
+  </si>
+  <si>
+    <t>O &amp; M Costs for Exterior Lights ($).</t>
+  </si>
+  <si>
+    <t>Add Output Diagnostics</t>
+  </si>
+  <si>
+    <t>AddOutputDiagnostics</t>
+  </si>
+  <si>
+    <t>EnergyPlusMeasure</t>
+  </si>
+  <si>
+    <t>Ouput Diagnostic Value.</t>
+  </si>
+  <si>
+    <t>outputDiagnostic</t>
+  </si>
+  <si>
+    <t>Add Output Variable</t>
+  </si>
+  <si>
+    <t>AddOutputVariable</t>
+  </si>
+  <si>
+    <t>Enter Variable Name.</t>
+  </si>
+  <si>
+    <t>variable_name</t>
+  </si>
+  <si>
+    <t>Reporting Frequency.</t>
+  </si>
+  <si>
+    <t>reporting_frequency</t>
+  </si>
+  <si>
+    <t>Add Overhangs by Projection Factor</t>
+  </si>
+  <si>
+    <t>AddOverhangsByProjectionFactor</t>
+  </si>
+  <si>
+    <t>Projection Factor (overhang depth / window height)</t>
+  </si>
+  <si>
+    <t>projection_factor</t>
+  </si>
+  <si>
+    <t>Cardinal Direction</t>
+  </si>
+  <si>
+    <t>Remove Existing Space Shading Surfaces From the Model?</t>
+  </si>
+  <si>
+    <t>remove_ext_space_shading</t>
+  </si>
+  <si>
+    <t>Optionally Choose a Construction for the Overhangs.</t>
+  </si>
+  <si>
+    <t>Add Simple PV to Shading Surfaces By Type</t>
+  </si>
+  <si>
+    <t>AddSimplePvToShadingSurfacesByType</t>
+  </si>
+  <si>
+    <t>Choose the Type of Shading Surfaces to add PV to</t>
+  </si>
+  <si>
+    <t>shading_type</t>
+  </si>
+  <si>
+    <t>Fraction of Included Surface Area with PV</t>
+  </si>
+  <si>
+    <t>fraction_surfacearea_with_pv</t>
+  </si>
+  <si>
+    <t>Fractional Value for Cell Efficiency</t>
+  </si>
+  <si>
+    <t>value_for_cell_efficiency</t>
+  </si>
+  <si>
+    <t>Material and Installation Costs for the PV ($).</t>
+  </si>
+  <si>
+    <t>O &amp; M Costs for the PV ($).</t>
+  </si>
+  <si>
+    <t>Adjust Thermostat Setpoints by Degrees</t>
+  </si>
+  <si>
+    <t>AdjustTheromstatSetpointsByDegrees</t>
+  </si>
+  <si>
+    <t>Degrees Fahrenheit to Adjust Cooling Setpoint By.</t>
+  </si>
+  <si>
+    <t>cooling_adjustment</t>
+  </si>
+  <si>
+    <t>Degrees Fahrenheit to Adjust heating Setpoint By.</t>
+  </si>
+  <si>
+    <t>heating_adjustment</t>
+  </si>
+  <si>
+    <t>Alter Design Day Thermostats?</t>
+  </si>
+  <si>
+    <t>alter_design_days</t>
+  </si>
+  <si>
+    <t>Bar Aspect Ratio Study</t>
+  </si>
+  <si>
+    <t>BarAspectRatioStudy</t>
+  </si>
+  <si>
+    <t>Total Building Floor Area (ft^2).</t>
+  </si>
+  <si>
+    <t>total_bldg_area_ip</t>
+  </si>
+  <si>
+    <t>Ratio of North/South Facade Length Relative to East/West Facade Length.</t>
+  </si>
+  <si>
+    <t>ns_to_ew_ratio</t>
+  </si>
+  <si>
+    <t>Number of Floors.</t>
+  </si>
+  <si>
+    <t>num_floors</t>
+  </si>
+  <si>
+    <t>Floor to Floor Height (ft).</t>
+  </si>
+  <si>
+    <t>floor_to_floor_height_ip</t>
+  </si>
+  <si>
+    <t>Surface Matching?</t>
+  </si>
+  <si>
+    <t>surface_matching</t>
+  </si>
+  <si>
+    <t>Make Thermal Zones from Spaces?</t>
+  </si>
+  <si>
+    <t>make_zones</t>
+  </si>
+  <si>
+    <t>Enable Demand Controlled Ventilation</t>
+  </si>
+  <si>
+    <t>EnableDemandControlledVentilation</t>
+  </si>
+  <si>
+    <t>Choose an Air Loop to Alter.</t>
+  </si>
+  <si>
+    <t>Remove Baseline Costs From Effected AirLoopHVACOutdoorAirSystems?</t>
+  </si>
+  <si>
+    <t>Material and Installation Costs per Air Loop to Enable Demand Controlled Ventilation ($).</t>
+  </si>
+  <si>
+    <t>Demolition Costs per Air Loop to Enable Demand Controlled Ventilation ($).</t>
+  </si>
+  <si>
+    <t>O &amp; M Costs per Air Loop for Demand Controlled Ventilation  ($).</t>
+  </si>
+  <si>
+    <t>Enable Economizer Control</t>
+  </si>
+  <si>
+    <t>EnableEconomizerControl</t>
+  </si>
+  <si>
+    <t>Economizer Control Type.</t>
+  </si>
+  <si>
+    <t>economizer_type</t>
+  </si>
+  <si>
+    <t>Economizer Maximum Limit Dry-Bulb Temperature (F).</t>
+  </si>
+  <si>
+    <t>econoMaxDryBulbTemp</t>
+  </si>
+  <si>
+    <t>Economizer Maximum Enthalpy (Btu/lb).</t>
+  </si>
+  <si>
+    <t>econoMaxEnthalpy</t>
+  </si>
+  <si>
+    <t>Economizer Maximum Limit Dewpoint Temperature (F).</t>
+  </si>
+  <si>
+    <t>econoMaxDewpointTemp</t>
+  </si>
+  <si>
+    <t>Economizer Minimum Limit Dry-Bulb Temperature (F).</t>
+  </si>
+  <si>
+    <t>econoMinDryBulbTemp</t>
+  </si>
+  <si>
+    <t>Material and Installation Costs per Air Loop to Enable Economizer ($).</t>
+  </si>
+  <si>
+    <t>Demolition Costs per Air Loop to Enable Economizer ($).</t>
+  </si>
+  <si>
+    <t>O &amp; M Costs per Air Loop for Economizer  ($).</t>
+  </si>
+  <si>
+    <t>Export Schedule CSV</t>
+  </si>
+  <si>
+    <t>ExportScheduleCSV</t>
+  </si>
+  <si>
+    <t>ReportingMeasure</t>
+  </si>
+  <si>
+    <t>Time Interval (minutes)</t>
+  </si>
+  <si>
+    <t>interval</t>
+  </si>
+  <si>
+    <t>Find and Replace Object Names in the Model</t>
+  </si>
+  <si>
+    <t>FindAndReplaceObjectNames</t>
+  </si>
+  <si>
+    <t>Type the text you want search for in object names</t>
+  </si>
+  <si>
+    <t>orig_string</t>
+  </si>
+  <si>
+    <t>Type the text you want to add in place of the found text</t>
+  </si>
+  <si>
+    <t>new_string</t>
+  </si>
+  <si>
+    <t>Improve Fan Belt Efficiency</t>
+  </si>
+  <si>
+    <t>ImproveFanBeltEfficiency</t>
+  </si>
+  <si>
+    <t>Motor Efficiency Improvement Due to Fan Belt Improvements(%).</t>
+  </si>
+  <si>
+    <t>motor_eff</t>
+  </si>
+  <si>
+    <t>Remove Baseline Costs From Effected Fans?</t>
+  </si>
+  <si>
+    <t>Material and Installation Costs per Motor ($).</t>
+  </si>
+  <si>
+    <t>Demolition Costs per Motor ($).</t>
+  </si>
+  <si>
+    <t>O &amp; M Costs per Motor ($).</t>
+  </si>
+  <si>
+    <t>Improve Motor Efficiency</t>
+  </si>
+  <si>
+    <t>ImproveMotorEfficiency</t>
+  </si>
+  <si>
+    <t>Choose a Plant or Air Loop to Alter.</t>
+  </si>
+  <si>
+    <t>Set Motor Efficiency(%).</t>
+  </si>
+  <si>
+    <t>Remove Baseline Costs From Effected Fans and Pumps?</t>
+  </si>
+  <si>
+    <t>Set R-value of Insulation for Exterior Walls to a Specific Value</t>
+  </si>
+  <si>
+    <t>IncreaseInsulationRValueForExteriorWalls</t>
+  </si>
+  <si>
+    <t>Insulation R-value (ft^2*h*R/Btu).</t>
+  </si>
+  <si>
+    <t>r_value</t>
+  </si>
+  <si>
+    <t>Increase in Material and Installation Costs for Construction per Area Used ($/ft^2).</t>
+  </si>
+  <si>
+    <t>material_cost_increase_ip</t>
+  </si>
+  <si>
+    <t>One Time Retrofit Cost to Add Insulation to Construction ($/ft^2).</t>
+  </si>
+  <si>
+    <t>one_time_retrofit_cost_ip</t>
+  </si>
+  <si>
+    <t>Year to Incur One Time Retrofit Cost (whole years).</t>
+  </si>
+  <si>
+    <t>years_until_retrofit_cost</t>
+  </si>
+  <si>
+    <t>Set R-value of Insulation for Roofs to a Specific Value</t>
+  </si>
+  <si>
+    <t>IncreaseInsulationRValueForRoofs</t>
+  </si>
+  <si>
+    <t>Inject OSM Geometry into an External IDF</t>
+  </si>
+  <si>
+    <t>InjectOsmGeometryIntoAnExternalIdf</t>
+  </si>
+  <si>
+    <t>Path to Source IDF File to Use.</t>
+  </si>
+  <si>
+    <t>source_idf_path</t>
+  </si>
+  <si>
+    <t>Merge Geometry From OpenStudio Model into Source IDF File?</t>
+  </si>
+  <si>
+    <t>merge_geometry_from_osm</t>
+  </si>
+  <si>
+    <t>Predicted Mean Vote</t>
+  </si>
+  <si>
+    <t>PredictedMeanVote</t>
+  </si>
+  <si>
+    <t>Enable ASHRAE 55 Comfort Warnings?</t>
+  </si>
+  <si>
+    <t>comfortWarnings</t>
+  </si>
+  <si>
+    <t>Mean Radiant Temperature Calculation Type.</t>
+  </si>
+  <si>
+    <t>meanRadiantCalcType</t>
+  </si>
+  <si>
+    <t>Choose a Work Efficiency Schedule.</t>
+  </si>
+  <si>
+    <t>workEfficiencySchedule</t>
+  </si>
+  <si>
+    <t>Choose a Clothing Insulation Schedule.</t>
+  </si>
+  <si>
+    <t>clothingSchedule</t>
+  </si>
+  <si>
+    <t>Choose an Air Velocity Schedule.</t>
+  </si>
+  <si>
+    <t>airVelocitySchedule</t>
+  </si>
+  <si>
+    <t>Reduce Electric Equipment Loads by Percentage</t>
+  </si>
+  <si>
+    <t>ReduceElectricEquipmentLoadsByPercentage</t>
+  </si>
+  <si>
+    <t>Electric Equipment Power Reduction (%).</t>
+  </si>
+  <si>
+    <t>elecequip_power_reduction_percent</t>
+  </si>
+  <si>
+    <t>Increase in Material and Installation Cost for Electric Equipment per Floor Area (%).</t>
+  </si>
+  <si>
+    <t>Increase in Demolition Costs for Electric Equipment per Floor Area (%).</t>
+  </si>
+  <si>
+    <t>Increase O &amp; M Costs for Electric Equipment per Floor Area (%).</t>
+  </si>
+  <si>
+    <t>Lighting Power Reduction (%).</t>
+  </si>
+  <si>
+    <t>Reduce Night Time Electric Equipment Loads</t>
+  </si>
+  <si>
+    <t>ReduceNightTimeElectricEquipmentLoads</t>
+  </si>
+  <si>
+    <t>Pick an Electric Equipment Definition(schedules using this will be altered)</t>
+  </si>
+  <si>
+    <t>elec_load_def</t>
+  </si>
+  <si>
+    <t>Fractional Value for Night Time Load.</t>
+  </si>
+  <si>
+    <t>fraction_value</t>
+  </si>
+  <si>
+    <t>Apply Schedule Changes to Weekday and Default Profiles?</t>
+  </si>
+  <si>
+    <t>apply_weekday</t>
+  </si>
+  <si>
+    <t>Weekday/Default Time to Start Night Time Fraction(24hr, use decimal for sub hour).</t>
+  </si>
+  <si>
+    <t>start_weekday</t>
+  </si>
+  <si>
+    <t>Weekday/Default Time to End Night Time Fraction(24hr, use decimal for sub hour).</t>
+  </si>
+  <si>
+    <t>end_weekday</t>
+  </si>
+  <si>
+    <t>Apply Schedule Changes to Saturdays?</t>
+  </si>
+  <si>
+    <t>apply_saturday</t>
+  </si>
+  <si>
+    <t>Saturday Time to Start Night Time Fraction(24hr, use decimal for sub hour).</t>
+  </si>
+  <si>
+    <t>start_saturday</t>
+  </si>
+  <si>
+    <t>Saturday Time to End Night Time Fraction(24hr, use decimal for sub hour).</t>
+  </si>
+  <si>
+    <t>end_saturday</t>
+  </si>
+  <si>
+    <t>Apply Schedule Changes to Sundays?</t>
+  </si>
+  <si>
+    <t>apply_sunday</t>
+  </si>
+  <si>
+    <t>Sunday Time to Start Night Time Fraction(24hr, use decimal for sub hour).</t>
+  </si>
+  <si>
+    <t>start_sunday</t>
+  </si>
+  <si>
+    <t>Sunday Time to End Night Time Fraction(24hr, use decimal for sub hour).</t>
+  </si>
+  <si>
+    <t>end_sunday</t>
+  </si>
+  <si>
+    <t>Material and Installation Costs per Electric Equipment Quantity ($).</t>
+  </si>
+  <si>
+    <t>O &amp; M Costs Costs per Electric Equipment Quantity ($).</t>
+  </si>
+  <si>
+    <t>Reduce Night Time Lighting Loads</t>
+  </si>
+  <si>
+    <t>ReduceNightTimeLightingLoads</t>
+  </si>
+  <si>
+    <t>Pick a Lighting Definition From the Model (schedules using this will be altered)</t>
+  </si>
+  <si>
+    <t>Fractional Value for Night Time Load</t>
+  </si>
+  <si>
+    <t>Apply schedule changes to Saturdays?</t>
+  </si>
+  <si>
+    <t>Material and Installation Costs per Light Quantity ($).</t>
+  </si>
+  <si>
+    <t>O &amp; M Costs Costs per Light Quantity ($).</t>
+  </si>
+  <si>
+    <t>Space Infiltration Power Reduction (%).</t>
+  </si>
+  <si>
+    <t>Reduce Ventilation By Percentage</t>
+  </si>
+  <si>
+    <t>ReduceVentilationByPercentage</t>
+  </si>
+  <si>
+    <t>Design Specification Outdoor Air Reduction (%).</t>
+  </si>
+  <si>
+    <t>design_spec_outdoor_air_reduction_percent</t>
+  </si>
+  <si>
+    <t>RemoveUnusedDefaultProfiles</t>
+  </si>
+  <si>
+    <t>Rename Space Surfaces Based on Parent Space and Orientation</t>
+  </si>
+  <si>
+    <t>RenameSpaceSurfacesBasedonParentSpaceandOrientation</t>
+  </si>
+  <si>
+    <t>Replace Exterior Window Constructions with a Different Construction from the Model</t>
+  </si>
+  <si>
+    <t>ReplaceExteriorWindowConstruction</t>
+  </si>
+  <si>
+    <t>Pick a Window Construction From the Model to Replace Existing Window Constructions.</t>
+  </si>
+  <si>
+    <t>Change Fixed Windows?</t>
+  </si>
+  <si>
+    <t>change_fixed_windows</t>
+  </si>
+  <si>
+    <t>Change Operable Windows?</t>
+  </si>
+  <si>
+    <t>change_operable_windows</t>
+  </si>
+  <si>
+    <t>Number of Degrees to Rotate Building (positive value is clockwise).</t>
+  </si>
+  <si>
+    <t>Set COP for Two Speed DX Cooling Units</t>
+  </si>
+  <si>
+    <t>SetCOPforTwoSpeedDXCoolingUnits</t>
+  </si>
+  <si>
+    <t>Choose an Air Loop with a two speed DX Cooling Unit to Alter.</t>
+  </si>
+  <si>
+    <t>Rated High Speed COP</t>
+  </si>
+  <si>
+    <t>cop_high</t>
+  </si>
+  <si>
+    <t>Rated Low Speed COP</t>
+  </si>
+  <si>
+    <t>cop_low</t>
+  </si>
+  <si>
+    <t>Remove Baseline Costs From Effected Cooling Coil DX Two Speed Units?</t>
+  </si>
+  <si>
+    <t>Material and Installation Costs per Cooling Coil DX Two Speed Unit ($).</t>
+  </si>
+  <si>
+    <t>Demolition Costs per Cooling Coil DX Two Speed Unit ($).</t>
+  </si>
+  <si>
+    <t>O &amp; M Costs per Cooling Coil DX Two Speed Unit ($).</t>
+  </si>
+  <si>
+    <t>Set EnergyPlus Light objects LPD</t>
+  </si>
+  <si>
+    <t>SetEnergyPlusLightObjectsLPD</t>
+  </si>
+  <si>
+    <t>Lighting Power Density (W/m^2)</t>
+  </si>
+  <si>
+    <t>lpd</t>
+  </si>
+  <si>
+    <t>Set Ext Wall To Ground Boundary Condition By Story</t>
+  </si>
+  <si>
+    <t>SetExtWallToGroundBoundaryConditionByStory</t>
+  </si>
+  <si>
+    <t>Choose a Story to Change Wall Boundary Conditions For.</t>
+  </si>
+  <si>
+    <t>storyBasement</t>
+  </si>
+  <si>
+    <t>Set Interior Walls to Adiabatic</t>
+  </si>
+  <si>
+    <t>SetInteriorWallsAndFloorsToAdiabatic</t>
+  </si>
+  <si>
+    <t>Select New Construction.</t>
+  </si>
+  <si>
+    <t>Set Interior Walls to Selected Construction</t>
+  </si>
+  <si>
+    <t>SetInteriorWallsToSelectedConstruction</t>
+  </si>
+  <si>
+    <t>Select new material:</t>
+  </si>
+  <si>
+    <t>Set Lifecycle Cost Parameters</t>
+  </si>
+  <si>
+    <t>SetLifecycleCostParameters</t>
+  </si>
+  <si>
+    <t>Set the Length of the Study Period (years).</t>
+  </si>
+  <si>
+    <t>study_period</t>
+  </si>
+  <si>
+    <t>Set Lighting Loads by LPD</t>
+  </si>
+  <si>
+    <t>SetLightingLoadsByLPD</t>
+  </si>
+  <si>
+    <t>Apply the Measure to a Specific Space Type or to the Entire Model</t>
+  </si>
+  <si>
+    <t>Lighting Power Density (W/ft^2)</t>
+  </si>
+  <si>
+    <t>Material and Installation Costs for Lights per Floor Area ($/ft^2).</t>
+  </si>
+  <si>
+    <t>Demolition Costs for Lights per Floor Area ($/ft^2).</t>
+  </si>
+  <si>
+    <t>O &amp; M Costs for Lights per Floor Area ($/ft^2).</t>
+  </si>
+  <si>
+    <t>Set Space Infiltration by Exterior Surface Area</t>
+  </si>
+  <si>
+    <t>SetSpaceInfiltrationByExteriorSurfaceArea</t>
+  </si>
+  <si>
+    <t>Space Infiltration Flow per Exterior Envelope Surface Area (cfm/ft^2).) #(ft^3/min)/(ft^2) = (ft/min</t>
+  </si>
+  <si>
+    <t>infiltration_ip</t>
+  </si>
+  <si>
+    <t>Increase in Material and Installation Costs for Building per Exterior Envelope Area ($/ft^2).</t>
+  </si>
+  <si>
+    <t>Set Window to Wall Ratio by Facade</t>
+  </si>
+  <si>
+    <t>Window to Wall Ratio (fraction).</t>
+  </si>
+  <si>
+    <t>Shift Schedule Profile Time</t>
+  </si>
+  <si>
+    <t>ShiftScheduleProfileTime</t>
+  </si>
+  <si>
+    <t>Choose a Schedule to Shift the Time For.</t>
+  </si>
+  <si>
+    <t>schedule</t>
+  </si>
+  <si>
+    <t>Shift Schedule Profiles Forward (24hr, use decimal for sub hour).</t>
+  </si>
+  <si>
+    <t>shift_value</t>
+  </si>
+  <si>
+    <t>Swap Lights Definition</t>
+  </si>
+  <si>
+    <t>SwapLightsDefinition</t>
+  </si>
+  <si>
+    <t>Choose the Lights Definition you Want to Replace.</t>
+  </si>
+  <si>
+    <t>old_lights_def</t>
+  </si>
+  <si>
+    <t>Choose the Lights Definition to Use in Place of Removed Definition.</t>
+  </si>
+  <si>
+    <t>new_lights_def</t>
+  </si>
+  <si>
+    <t>Xcel EDA Reporting and QAQC</t>
+  </si>
+  <si>
+    <t>XcelEDAReportingandQAQC</t>
+  </si>
+  <si>
+    <t>Xcel EDA Tariff Selection and Model Setup</t>
+  </si>
+  <si>
+    <t>XcelEDATariffSelectionandModelSetup</t>
+  </si>
+  <si>
+    <t>Select an Electricity Tariff.</t>
+  </si>
+  <si>
+    <t>elec_tar</t>
+  </si>
+  <si>
+    <t>Select a Gas Tariff.</t>
+  </si>
+  <si>
+    <t>gas_tar</t>
+  </si>
+  <si>
+    <t>Building - Life Cycle Costs</t>
+  </si>
+  <si>
+    <t>**All Air Loops**</t>
+  </si>
+  <si>
+    <t>|**All Air Loops**|</t>
+  </si>
+  <si>
+    <t>Continuous/Off</t>
+  </si>
+  <si>
+    <t>|None,Continuous,Stepped,Continuous/Off|</t>
+  </si>
+  <si>
+    <t>Exterior Facade Lighting</t>
+  </si>
+  <si>
+    <t>DisplayExtraWarnings</t>
+  </si>
+  <si>
+    <t>|DisplayAllWarnings,DisplayExtraWarnings,DisplayUnusedSchedules,DisplayUnusedObjects,DisplayAdvancedReportVariables,DisplayZoneAirHeatBalanceOffBalance,DoNotMirrorDetachedShading,DisplayWeatherMissingDataWarnings,ReportDuringWarmup,ReportDetailedWarmupConvergence|</t>
+  </si>
+  <si>
+    <t>hourly</t>
+  </si>
+  <si>
+    <t>|detailed,timestep,hourly,daily,monthly|</t>
+  </si>
+  <si>
+    <t>Building Shading</t>
+  </si>
+  <si>
+    <t>|Site Shading,Building Shading,Space/Zone Shading|</t>
+  </si>
+  <si>
+    <t>*All Air Loops*</t>
+  </si>
+  <si>
+    <t>|*All Air Loops*|</t>
+  </si>
+  <si>
+    <t>replace this text</t>
+  </si>
+  <si>
+    <t>with this text</t>
+  </si>
+  <si>
+    <t>*All Plant and Air Loops*</t>
+  </si>
+  <si>
+    <t>|*All Plant and Air Loops*|</t>
+  </si>
+  <si>
+    <t>ZoneAveraged</t>
+  </si>
+  <si>
+    <t>|ZoneAveraged,SurfaceWeighted|</t>
+  </si>
+  <si>
+    <t>clothing_schedule_display_names[0]</t>
+  </si>
+  <si>
+    <t>|clothing_schedule_display_names[0]|</t>
+  </si>
+  <si>
+    <t>airVelocity_schedule_display_names[0]</t>
+  </si>
+  <si>
+    <t>|airVelocity_schedule_display_names[0]|</t>
+  </si>
+  <si>
+    <t>*All Ruleset Schedules*</t>
+  </si>
+  <si>
+    <t>|*All Ruleset Schedules*|</t>
+  </si>
+  <si>
+    <t>Secondary General</t>
+  </si>
+  <si>
+    <t>|Residential General,Commercial,Primary General,Secondary General Low Load Factor,Secondary General,Secondary Photovoltaic Time-of-Use,Transmission General,Non-Xcel Commercial,Non-Xcel Primary General,Non-Xcel Secondary General Low Load Factor,Non-Xcel Secondary General,Non-Xcel Transmission General|</t>
+  </si>
+  <si>
+    <t>Large CG</t>
+  </si>
+  <si>
+    <t>|Residential Gas,Small CG,Large CG,Interruptible Industrial G,Non-Xcel Gas Firm,Non-Xcel Gas Interruptible|</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,6 +1457,13 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1650,7 +2705,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1683,9 +2738,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1698,6 +2750,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1195">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3229,8 +4285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3381,9 +4437,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3423,14 +4479,14 @@
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
-      <c r="Q1" s="16" t="s">
+      <c r="Q1" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
     </row>
     <row r="2" spans="1:22" s="9" customFormat="1" ht="15">
       <c r="A2" s="9" t="s">
@@ -3445,8 +4501,8 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:22" s="17" customFormat="1" ht="45">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:22" s="16" customFormat="1" ht="45">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -3461,7 +4517,7 @@
       <c r="E3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="11" t="s">
@@ -3473,16 +4529,16 @@
       <c r="I3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="18" t="s">
         <v>9</v>
       </c>
       <c r="N3" s="11" t="s">
@@ -3497,16 +4553,16 @@
       <c r="Q3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="17" t="s">
+      <c r="R3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="17" t="s">
+      <c r="S3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="17" t="s">
+      <c r="T3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="U3" s="17" t="s">
+      <c r="U3" s="16" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3875,7 +4931,7 @@
       <c r="B18" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="19" t="s">
         <v>110</v>
       </c>
       <c r="D18" t="s">
@@ -4242,4 +5298,7369 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I327"/>
+  <sheetViews>
+    <sheetView topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15">
+      <c r="A1" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+    </row>
+    <row r="2" spans="1:9" ht="15">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+    </row>
+    <row r="3" spans="1:9" ht="15">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" ht="15">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21">
+        <v>0</v>
+      </c>
+      <c r="I4" s="21"/>
+    </row>
+    <row r="5" spans="1:9" ht="15">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21">
+        <v>0</v>
+      </c>
+      <c r="I5" s="21"/>
+    </row>
+    <row r="6" spans="1:9" ht="15">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21">
+        <v>0</v>
+      </c>
+      <c r="I6" s="21"/>
+    </row>
+    <row r="7" spans="1:9" ht="15">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="21"/>
+    </row>
+    <row r="8" spans="1:9" ht="15">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21">
+        <v>20</v>
+      </c>
+      <c r="I8" s="21"/>
+    </row>
+    <row r="9" spans="1:9" ht="15">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21">
+        <v>0</v>
+      </c>
+      <c r="I9" s="21"/>
+    </row>
+    <row r="10" spans="1:9" ht="15">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21">
+        <v>1</v>
+      </c>
+      <c r="I10" s="21"/>
+    </row>
+    <row r="11" spans="1:9" ht="15">
+      <c r="A11" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+    </row>
+    <row r="12" spans="1:9" ht="15">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+    </row>
+    <row r="13" spans="1:9" ht="15">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="21"/>
+    </row>
+    <row r="14" spans="1:9" ht="15">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21">
+        <v>0</v>
+      </c>
+      <c r="I14" s="21"/>
+    </row>
+    <row r="15" spans="1:9" ht="15">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21">
+        <v>0</v>
+      </c>
+      <c r="I15" s="21"/>
+    </row>
+    <row r="16" spans="1:9" ht="15">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21">
+        <v>0</v>
+      </c>
+      <c r="I16" s="21"/>
+    </row>
+    <row r="17" spans="1:9" ht="15">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="21"/>
+    </row>
+    <row r="18" spans="1:9" ht="15">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21">
+        <v>20</v>
+      </c>
+      <c r="I18" s="21"/>
+    </row>
+    <row r="19" spans="1:9" ht="15">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21">
+        <v>0</v>
+      </c>
+      <c r="I19" s="21"/>
+    </row>
+    <row r="20" spans="1:9" ht="15">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21">
+        <v>1</v>
+      </c>
+      <c r="I20" s="21"/>
+    </row>
+    <row r="21" spans="1:9" ht="15">
+      <c r="A21" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+    </row>
+    <row r="22" spans="1:9" ht="15">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" s="21"/>
+    </row>
+    <row r="23" spans="1:9" ht="15">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21" t="s">
+        <v>431</v>
+      </c>
+      <c r="I23" s="21"/>
+    </row>
+    <row r="24" spans="1:9" ht="15">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21">
+        <v>0</v>
+      </c>
+      <c r="I24" s="21"/>
+    </row>
+    <row r="25" spans="1:9" ht="15">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21">
+        <v>0</v>
+      </c>
+      <c r="I25" s="21"/>
+    </row>
+    <row r="26" spans="1:9" ht="15">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21">
+        <v>0</v>
+      </c>
+      <c r="I26" s="21"/>
+    </row>
+    <row r="27" spans="1:9" ht="15">
+      <c r="A27" s="21"/>
+      <c r="B27" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" s="21"/>
+    </row>
+    <row r="28" spans="1:9" ht="15">
+      <c r="A28" s="21"/>
+      <c r="B28" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21">
+        <v>20</v>
+      </c>
+      <c r="I28" s="21"/>
+    </row>
+    <row r="29" spans="1:9" ht="15">
+      <c r="A29" s="21"/>
+      <c r="B29" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21">
+        <v>0</v>
+      </c>
+      <c r="I29" s="21"/>
+    </row>
+    <row r="30" spans="1:9" ht="15">
+      <c r="A30" s="21"/>
+      <c r="B30" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21">
+        <v>1</v>
+      </c>
+      <c r="I30" s="21"/>
+    </row>
+    <row r="31" spans="1:9" ht="15">
+      <c r="A31" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+    </row>
+    <row r="32" spans="1:9" ht="15">
+      <c r="A32" s="21"/>
+      <c r="B32" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+    </row>
+    <row r="33" spans="1:9" ht="15">
+      <c r="A33" s="21"/>
+      <c r="B33" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" s="21"/>
+    </row>
+    <row r="34" spans="1:9" ht="15">
+      <c r="A34" s="21"/>
+      <c r="B34" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21">
+        <v>0</v>
+      </c>
+      <c r="I34" s="21"/>
+    </row>
+    <row r="35" spans="1:9" ht="15">
+      <c r="A35" s="21"/>
+      <c r="B35" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21">
+        <v>0</v>
+      </c>
+      <c r="I35" s="21"/>
+    </row>
+    <row r="36" spans="1:9" ht="15">
+      <c r="A36" s="21"/>
+      <c r="B36" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21">
+        <v>0</v>
+      </c>
+      <c r="I36" s="21"/>
+    </row>
+    <row r="37" spans="1:9" ht="15">
+      <c r="A37" s="21"/>
+      <c r="B37" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" s="21"/>
+    </row>
+    <row r="38" spans="1:9" ht="15">
+      <c r="A38" s="21"/>
+      <c r="B38" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21">
+        <v>20</v>
+      </c>
+      <c r="I38" s="21"/>
+    </row>
+    <row r="39" spans="1:9" ht="15">
+      <c r="A39" s="21"/>
+      <c r="B39" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21">
+        <v>0</v>
+      </c>
+      <c r="I39" s="21"/>
+    </row>
+    <row r="40" spans="1:9" ht="15">
+      <c r="A40" s="21"/>
+      <c r="B40" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21">
+        <v>1</v>
+      </c>
+      <c r="I40" s="21"/>
+    </row>
+    <row r="41" spans="1:9" ht="15">
+      <c r="A41" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+    </row>
+    <row r="42" spans="1:9" ht="15">
+      <c r="A42" s="21"/>
+      <c r="B42" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+    </row>
+    <row r="43" spans="1:9" ht="15">
+      <c r="A43" s="21"/>
+      <c r="B43" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F43" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I43" s="21"/>
+    </row>
+    <row r="44" spans="1:9" ht="15">
+      <c r="A44" s="21"/>
+      <c r="B44" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F44" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21">
+        <v>0</v>
+      </c>
+      <c r="I44" s="21"/>
+    </row>
+    <row r="45" spans="1:9" ht="15">
+      <c r="A45" s="21"/>
+      <c r="B45" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F45" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21">
+        <v>0</v>
+      </c>
+      <c r="I45" s="21"/>
+    </row>
+    <row r="46" spans="1:9" ht="15">
+      <c r="A46" s="21"/>
+      <c r="B46" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E46" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F46" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21">
+        <v>0</v>
+      </c>
+      <c r="I46" s="21"/>
+    </row>
+    <row r="47" spans="1:9" ht="15">
+      <c r="A47" s="21"/>
+      <c r="B47" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F47" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" s="21"/>
+    </row>
+    <row r="48" spans="1:9" ht="15">
+      <c r="A48" s="21"/>
+      <c r="B48" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E48" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F48" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21">
+        <v>20</v>
+      </c>
+      <c r="I48" s="21"/>
+    </row>
+    <row r="49" spans="1:9" ht="15">
+      <c r="A49" s="21"/>
+      <c r="B49" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="E49" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F49" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21">
+        <v>0</v>
+      </c>
+      <c r="I49" s="21"/>
+    </row>
+    <row r="50" spans="1:9" ht="15">
+      <c r="A50" s="21"/>
+      <c r="B50" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E50" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F50" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21">
+        <v>1</v>
+      </c>
+      <c r="I50" s="21"/>
+    </row>
+    <row r="51" spans="1:9" ht="15">
+      <c r="A51" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+    </row>
+    <row r="52" spans="1:9" ht="15">
+      <c r="A52" s="21"/>
+      <c r="B52" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="E52" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F52" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+    </row>
+    <row r="53" spans="1:9" ht="15">
+      <c r="A53" s="21"/>
+      <c r="B53" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D53" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="E53" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F53" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I53" s="21"/>
+    </row>
+    <row r="54" spans="1:9" ht="15">
+      <c r="A54" s="21"/>
+      <c r="B54" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="D54" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E54" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F54" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21">
+        <v>0</v>
+      </c>
+      <c r="I54" s="21"/>
+    </row>
+    <row r="55" spans="1:9" ht="15">
+      <c r="A55" s="21"/>
+      <c r="B55" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D55" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="E55" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F55" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21">
+        <v>0</v>
+      </c>
+      <c r="I55" s="21"/>
+    </row>
+    <row r="56" spans="1:9" ht="15">
+      <c r="A56" s="21"/>
+      <c r="B56" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D56" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E56" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F56" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21">
+        <v>0</v>
+      </c>
+      <c r="I56" s="21"/>
+    </row>
+    <row r="57" spans="1:9" ht="15">
+      <c r="A57" s="21"/>
+      <c r="B57" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E57" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F57" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" s="21"/>
+    </row>
+    <row r="58" spans="1:9" ht="15">
+      <c r="A58" s="21"/>
+      <c r="B58" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D58" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E58" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F58" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21">
+        <v>20</v>
+      </c>
+      <c r="I58" s="21"/>
+    </row>
+    <row r="59" spans="1:9" ht="15">
+      <c r="A59" s="21"/>
+      <c r="B59" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="D59" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="E59" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F59" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21">
+        <v>0</v>
+      </c>
+      <c r="I59" s="21"/>
+    </row>
+    <row r="60" spans="1:9" ht="15">
+      <c r="A60" s="21"/>
+      <c r="B60" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D60" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E60" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F60" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21">
+        <v>1</v>
+      </c>
+      <c r="I60" s="21"/>
+    </row>
+    <row r="61" spans="1:9" ht="15">
+      <c r="A61" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="D61" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
+    </row>
+    <row r="62" spans="1:9" ht="15">
+      <c r="A62" s="21"/>
+      <c r="B62" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D62" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="E62" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F62" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="21"/>
+    </row>
+    <row r="63" spans="1:9" ht="15">
+      <c r="A63" s="21"/>
+      <c r="B63" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="D63" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="E63" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F63" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21" t="s">
+        <v>432</v>
+      </c>
+      <c r="I63" s="21" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="15">
+      <c r="A64" s="21"/>
+      <c r="B64" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D64" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="E64" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F64" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I64" s="21"/>
+    </row>
+    <row r="65" spans="1:9" ht="15">
+      <c r="A65" s="21"/>
+      <c r="B65" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="D65" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="E65" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F65" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21">
+        <v>0</v>
+      </c>
+      <c r="I65" s="21"/>
+    </row>
+    <row r="66" spans="1:9" ht="15">
+      <c r="A66" s="21"/>
+      <c r="B66" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="D66" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E66" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F66" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21">
+        <v>0</v>
+      </c>
+      <c r="I66" s="21"/>
+    </row>
+    <row r="67" spans="1:9" ht="15">
+      <c r="A67" s="21"/>
+      <c r="B67" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D67" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E67" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F67" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21">
+        <v>0</v>
+      </c>
+      <c r="I67" s="21"/>
+    </row>
+    <row r="68" spans="1:9" ht="15">
+      <c r="A68" s="21"/>
+      <c r="B68" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D68" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E68" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F68" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G68" s="21"/>
+      <c r="H68" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" s="21"/>
+    </row>
+    <row r="69" spans="1:9" ht="15">
+      <c r="A69" s="21"/>
+      <c r="B69" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D69" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E69" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F69" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21">
+        <v>20</v>
+      </c>
+      <c r="I69" s="21"/>
+    </row>
+    <row r="70" spans="1:9" ht="15">
+      <c r="A70" s="21"/>
+      <c r="B70" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="D70" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E70" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F70" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21">
+        <v>0</v>
+      </c>
+      <c r="I70" s="21"/>
+    </row>
+    <row r="71" spans="1:9" ht="15">
+      <c r="A71" s="21"/>
+      <c r="B71" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C71" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D71" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E71" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F71" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21">
+        <v>1</v>
+      </c>
+      <c r="I71" s="21"/>
+    </row>
+    <row r="72" spans="1:9" ht="15">
+      <c r="A72" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="B72" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="D72" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="21"/>
+    </row>
+    <row r="73" spans="1:9" ht="15">
+      <c r="A73" s="21"/>
+      <c r="B73" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="D73" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E73" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F73" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G73" s="21"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="21"/>
+    </row>
+    <row r="74" spans="1:9" ht="15">
+      <c r="A74" s="21"/>
+      <c r="B74" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="D74" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="E74" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F74" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G74" s="21"/>
+      <c r="H74" s="21">
+        <v>45</v>
+      </c>
+      <c r="I74" s="21"/>
+    </row>
+    <row r="75" spans="1:9" ht="15">
+      <c r="A75" s="21"/>
+      <c r="B75" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C75" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="D75" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="E75" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F75" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G75" s="21"/>
+      <c r="H75" s="21" t="s">
+        <v>434</v>
+      </c>
+      <c r="I75" s="21" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="15">
+      <c r="A76" s="21"/>
+      <c r="B76" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C76" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="D76" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="E76" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F76" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G76" s="21"/>
+      <c r="H76" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="I76" s="21"/>
+    </row>
+    <row r="77" spans="1:9" ht="15">
+      <c r="A77" s="21"/>
+      <c r="B77" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C77" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="D77" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="E77" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F77" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G77" s="21"/>
+      <c r="H77" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="I77" s="21"/>
+    </row>
+    <row r="78" spans="1:9" ht="15">
+      <c r="A78" s="21"/>
+      <c r="B78" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C78" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="D78" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="E78" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F78" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G78" s="21"/>
+      <c r="H78" s="21">
+        <v>30</v>
+      </c>
+      <c r="I78" s="21"/>
+    </row>
+    <row r="79" spans="1:9" ht="15">
+      <c r="A79" s="21"/>
+      <c r="B79" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C79" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="D79" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="E79" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F79" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G79" s="21"/>
+      <c r="H79" s="21">
+        <v>0</v>
+      </c>
+      <c r="I79" s="21"/>
+    </row>
+    <row r="80" spans="1:9" ht="15">
+      <c r="A80" s="21"/>
+      <c r="B80" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="D80" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E80" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F80" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G80" s="21"/>
+      <c r="H80" s="21">
+        <v>0</v>
+      </c>
+      <c r="I80" s="21"/>
+    </row>
+    <row r="81" spans="1:9" ht="15">
+      <c r="A81" s="21"/>
+      <c r="B81" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C81" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D81" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E81" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F81" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G81" s="21"/>
+      <c r="H81" s="21">
+        <v>0</v>
+      </c>
+      <c r="I81" s="21"/>
+    </row>
+    <row r="82" spans="1:9" ht="15">
+      <c r="A82" s="21"/>
+      <c r="B82" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C82" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D82" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E82" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F82" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G82" s="21"/>
+      <c r="H82" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" s="21"/>
+    </row>
+    <row r="83" spans="1:9" ht="15">
+      <c r="A83" s="21"/>
+      <c r="B83" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C83" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D83" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E83" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F83" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G83" s="21"/>
+      <c r="H83" s="21">
+        <v>20</v>
+      </c>
+      <c r="I83" s="21"/>
+    </row>
+    <row r="84" spans="1:9" ht="15">
+      <c r="A84" s="21"/>
+      <c r="B84" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="D84" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E84" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F84" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G84" s="21"/>
+      <c r="H84" s="21">
+        <v>0</v>
+      </c>
+      <c r="I84" s="21"/>
+    </row>
+    <row r="85" spans="1:9" ht="15">
+      <c r="A85" s="21"/>
+      <c r="B85" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C85" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D85" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E85" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F85" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G85" s="21"/>
+      <c r="H85" s="21">
+        <v>1</v>
+      </c>
+      <c r="I85" s="21"/>
+    </row>
+    <row r="86" spans="1:9" ht="15">
+      <c r="A86" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="B86" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="C86" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="D86" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E86" s="21"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="21"/>
+      <c r="H86" s="21"/>
+      <c r="I86" s="21"/>
+    </row>
+    <row r="87" spans="1:9" ht="15">
+      <c r="A87" s="21"/>
+      <c r="B87" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C87" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D87" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="E87" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F87" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G87" s="21"/>
+      <c r="H87" s="21">
+        <v>1000</v>
+      </c>
+      <c r="I87" s="21"/>
+    </row>
+    <row r="88" spans="1:9" ht="15">
+      <c r="A88" s="21"/>
+      <c r="B88" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C88" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="D88" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="E88" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F88" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="G88" s="21"/>
+      <c r="H88" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="I88" s="21"/>
+    </row>
+    <row r="89" spans="1:9" ht="15">
+      <c r="A89" s="21"/>
+      <c r="B89" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C89" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="D89" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="E89" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F89" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G89" s="21"/>
+      <c r="H89" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" s="21"/>
+    </row>
+    <row r="90" spans="1:9" ht="15">
+      <c r="A90" s="21"/>
+      <c r="B90" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C90" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="D90" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="E90" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F90" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G90" s="21"/>
+      <c r="H90" s="21">
+        <v>0</v>
+      </c>
+      <c r="I90" s="21"/>
+    </row>
+    <row r="91" spans="1:9" ht="15">
+      <c r="A91" s="21"/>
+      <c r="B91" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C91" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="D91" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E91" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F91" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G91" s="21"/>
+      <c r="H91" s="21">
+        <v>0</v>
+      </c>
+      <c r="I91" s="21"/>
+    </row>
+    <row r="92" spans="1:9" ht="15">
+      <c r="A92" s="21"/>
+      <c r="B92" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C92" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D92" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E92" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F92" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G92" s="21"/>
+      <c r="H92" s="21">
+        <v>0</v>
+      </c>
+      <c r="I92" s="21"/>
+    </row>
+    <row r="93" spans="1:9" ht="15">
+      <c r="A93" s="21"/>
+      <c r="B93" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C93" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D93" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E93" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F93" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G93" s="21"/>
+      <c r="H93" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" s="21"/>
+    </row>
+    <row r="94" spans="1:9" ht="15">
+      <c r="A94" s="21"/>
+      <c r="B94" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C94" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D94" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E94" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F94" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G94" s="21"/>
+      <c r="H94" s="21">
+        <v>20</v>
+      </c>
+      <c r="I94" s="21"/>
+    </row>
+    <row r="95" spans="1:9" ht="15">
+      <c r="A95" s="21"/>
+      <c r="B95" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C95" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="D95" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E95" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F95" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G95" s="21"/>
+      <c r="H95" s="21">
+        <v>0</v>
+      </c>
+      <c r="I95" s="21"/>
+    </row>
+    <row r="96" spans="1:9" ht="15">
+      <c r="A96" s="21"/>
+      <c r="B96" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C96" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D96" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E96" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F96" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G96" s="21"/>
+      <c r="H96" s="21">
+        <v>1</v>
+      </c>
+      <c r="I96" s="21"/>
+    </row>
+    <row r="97" spans="1:9" ht="15">
+      <c r="A97" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="B97" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="C97" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="D97" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="E97" s="21"/>
+      <c r="F97" s="21"/>
+      <c r="G97" s="21"/>
+      <c r="H97" s="21"/>
+      <c r="I97" s="21"/>
+    </row>
+    <row r="98" spans="1:9" ht="15">
+      <c r="A98" s="21"/>
+      <c r="B98" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C98" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="D98" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="E98" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F98" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G98" s="21"/>
+      <c r="H98" s="21" t="s">
+        <v>437</v>
+      </c>
+      <c r="I98" s="21" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="15">
+      <c r="A99" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="B99" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="C99" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="D99" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E99" s="21"/>
+      <c r="F99" s="21"/>
+      <c r="G99" s="21"/>
+      <c r="H99" s="21"/>
+      <c r="I99" s="21"/>
+    </row>
+    <row r="100" spans="1:9" ht="15">
+      <c r="A100" s="21"/>
+      <c r="B100" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C100" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="D100" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="E100" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F100" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="G100" s="21"/>
+      <c r="H100" s="21"/>
+      <c r="I100" s="21"/>
+    </row>
+    <row r="101" spans="1:9" ht="15">
+      <c r="A101" s="21"/>
+      <c r="B101" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C101" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="D101" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="E101" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F101" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G101" s="21"/>
+      <c r="H101" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="I101" s="21" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="15">
+      <c r="A102" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="B102" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="C102" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="D102" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E102" s="21"/>
+      <c r="F102" s="21"/>
+      <c r="G102" s="21"/>
+      <c r="H102" s="21"/>
+      <c r="I102" s="21"/>
+    </row>
+    <row r="103" spans="1:9" ht="15">
+      <c r="A103" s="21"/>
+      <c r="B103" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C103" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="D103" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="E103" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F103" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G103" s="21"/>
+      <c r="H103" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="I103" s="21"/>
+    </row>
+    <row r="104" spans="1:9" ht="15">
+      <c r="A104" s="21"/>
+      <c r="B104" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C104" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="D104" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="E104" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F104" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G104" s="21"/>
+      <c r="H104" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="I104" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="15">
+      <c r="A105" s="21"/>
+      <c r="B105" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C105" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="D105" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="E105" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F105" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G105" s="21"/>
+      <c r="H105" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I105" s="21"/>
+    </row>
+    <row r="106" spans="1:9" ht="15">
+      <c r="A106" s="21"/>
+      <c r="B106" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C106" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="D106" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="E106" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F106" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G106" s="21"/>
+      <c r="H106" s="21"/>
+      <c r="I106" s="21"/>
+    </row>
+    <row r="107" spans="1:9" ht="15">
+      <c r="A107" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="B107" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="C107" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="D107" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="E107" s="21"/>
+      <c r="F107" s="21"/>
+      <c r="G107" s="21"/>
+      <c r="H107" s="21"/>
+      <c r="I107" s="21"/>
+    </row>
+    <row r="108" spans="1:9" ht="15">
+      <c r="A108" s="21"/>
+      <c r="B108" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C108" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="D108" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="E108" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F108" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G108" s="21"/>
+      <c r="H108" s="21" t="s">
+        <v>441</v>
+      </c>
+      <c r="I108" s="21" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="15">
+      <c r="A109" s="21"/>
+      <c r="B109" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C109" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="D109" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="E109" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F109" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G109" s="21"/>
+      <c r="H109" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="I109" s="21"/>
+    </row>
+    <row r="110" spans="1:9" ht="15">
+      <c r="A110" s="21"/>
+      <c r="B110" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C110" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="D110" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="E110" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F110" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G110" s="21"/>
+      <c r="H110" s="21">
+        <v>0.12</v>
+      </c>
+      <c r="I110" s="21"/>
+    </row>
+    <row r="111" spans="1:9" ht="15">
+      <c r="A111" s="21"/>
+      <c r="B111" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C111" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="D111" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="E111" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F111" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G111" s="21"/>
+      <c r="H111" s="21">
+        <v>0</v>
+      </c>
+      <c r="I111" s="21"/>
+    </row>
+    <row r="112" spans="1:9" ht="15">
+      <c r="A112" s="21"/>
+      <c r="B112" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C112" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D112" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E112" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F112" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G112" s="21"/>
+      <c r="H112" s="21">
+        <v>20</v>
+      </c>
+      <c r="I112" s="21"/>
+    </row>
+    <row r="113" spans="1:9" ht="15">
+      <c r="A113" s="21"/>
+      <c r="B113" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C113" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="D113" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E113" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F113" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G113" s="21"/>
+      <c r="H113" s="21">
+        <v>0</v>
+      </c>
+      <c r="I113" s="21"/>
+    </row>
+    <row r="114" spans="1:9" ht="15">
+      <c r="A114" s="21"/>
+      <c r="B114" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C114" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D114" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E114" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F114" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G114" s="21"/>
+      <c r="H114" s="21">
+        <v>1</v>
+      </c>
+      <c r="I114" s="21"/>
+    </row>
+    <row r="115" spans="1:9" ht="15">
+      <c r="A115" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="B115" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="C115" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="D115" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E115" s="21"/>
+      <c r="F115" s="21"/>
+      <c r="G115" s="21"/>
+      <c r="H115" s="21"/>
+      <c r="I115" s="21"/>
+    </row>
+    <row r="116" spans="1:9" ht="15">
+      <c r="A116" s="21"/>
+      <c r="B116" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C116" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="D116" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="E116" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F116" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G116" s="21"/>
+      <c r="H116" s="21">
+        <v>1</v>
+      </c>
+      <c r="I116" s="21"/>
+    </row>
+    <row r="117" spans="1:9" ht="15">
+      <c r="A117" s="21"/>
+      <c r="B117" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C117" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="D117" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="E117" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F117" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G117" s="21"/>
+      <c r="H117" s="21">
+        <v>-1</v>
+      </c>
+      <c r="I117" s="21"/>
+    </row>
+    <row r="118" spans="1:9" ht="15">
+      <c r="A118" s="21"/>
+      <c r="B118" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C118" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="D118" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="E118" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F118" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G118" s="21"/>
+      <c r="H118" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I118" s="21"/>
+    </row>
+    <row r="119" spans="1:9" ht="15">
+      <c r="A119" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="B119" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="C119" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="D119" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E119" s="21"/>
+      <c r="F119" s="21"/>
+      <c r="G119" s="21"/>
+      <c r="H119" s="21"/>
+      <c r="I119" s="21"/>
+    </row>
+    <row r="120" spans="1:9" ht="15">
+      <c r="A120" s="21"/>
+      <c r="B120" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C120" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="D120" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="E120" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F120" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G120" s="21"/>
+      <c r="H120" s="21">
+        <v>10000</v>
+      </c>
+      <c r="I120" s="21"/>
+    </row>
+    <row r="121" spans="1:9" ht="15">
+      <c r="A121" s="21"/>
+      <c r="B121" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C121" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="D121" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="E121" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F121" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G121" s="21"/>
+      <c r="H121" s="21">
+        <v>2</v>
+      </c>
+      <c r="I121" s="21"/>
+    </row>
+    <row r="122" spans="1:9" ht="15">
+      <c r="A122" s="21"/>
+      <c r="B122" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C122" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="D122" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="E122" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F122" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G122" s="21"/>
+      <c r="H122" s="21">
+        <v>2</v>
+      </c>
+      <c r="I122" s="21"/>
+    </row>
+    <row r="123" spans="1:9" ht="15">
+      <c r="A123" s="21"/>
+      <c r="B123" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C123" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="D123" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="E123" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F123" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G123" s="21"/>
+      <c r="H123" s="21">
+        <v>10</v>
+      </c>
+      <c r="I123" s="21"/>
+    </row>
+    <row r="124" spans="1:9" ht="15">
+      <c r="A124" s="21"/>
+      <c r="B124" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C124" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="D124" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="E124" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F124" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G124" s="21"/>
+      <c r="H124" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I124" s="21"/>
+    </row>
+    <row r="125" spans="1:9" ht="15">
+      <c r="A125" s="21"/>
+      <c r="B125" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C125" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="D125" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="E125" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F125" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G125" s="21"/>
+      <c r="H125" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I125" s="21"/>
+    </row>
+    <row r="126" spans="1:9" ht="15">
+      <c r="A126" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="B126" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="C126" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="D126" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E126" s="21"/>
+      <c r="F126" s="21"/>
+      <c r="G126" s="21"/>
+      <c r="H126" s="21"/>
+      <c r="I126" s="21"/>
+    </row>
+    <row r="127" spans="1:9" ht="15">
+      <c r="A127" s="21"/>
+      <c r="B127" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C127" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="D127" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="E127" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F127" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G127" s="21"/>
+      <c r="H127" s="21" t="s">
+        <v>443</v>
+      </c>
+      <c r="I127" s="21" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="15">
+      <c r="A128" s="21"/>
+      <c r="B128" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C128" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="D128" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="E128" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F128" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G128" s="21"/>
+      <c r="H128" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I128" s="21"/>
+    </row>
+    <row r="129" spans="1:9" ht="15">
+      <c r="A129" s="21"/>
+      <c r="B129" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C129" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="D129" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="E129" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F129" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G129" s="21"/>
+      <c r="H129" s="21">
+        <v>0</v>
+      </c>
+      <c r="I129" s="21"/>
+    </row>
+    <row r="130" spans="1:9" ht="15">
+      <c r="A130" s="21"/>
+      <c r="B130" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C130" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D130" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E130" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F130" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G130" s="21"/>
+      <c r="H130" s="21">
+        <v>0</v>
+      </c>
+      <c r="I130" s="21"/>
+    </row>
+    <row r="131" spans="1:9" ht="15">
+      <c r="A131" s="21"/>
+      <c r="B131" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C131" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D131" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E131" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F131" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G131" s="21"/>
+      <c r="H131" s="21">
+        <v>0</v>
+      </c>
+      <c r="I131" s="21"/>
+    </row>
+    <row r="132" spans="1:9" ht="15">
+      <c r="A132" s="21"/>
+      <c r="B132" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C132" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D132" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E132" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F132" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G132" s="21"/>
+      <c r="H132" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I132" s="21"/>
+    </row>
+    <row r="133" spans="1:9" ht="15">
+      <c r="A133" s="21"/>
+      <c r="B133" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C133" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D133" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E133" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F133" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G133" s="21"/>
+      <c r="H133" s="21">
+        <v>20</v>
+      </c>
+      <c r="I133" s="21"/>
+    </row>
+    <row r="134" spans="1:9" ht="15">
+      <c r="A134" s="21"/>
+      <c r="B134" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C134" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="D134" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E134" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F134" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G134" s="21"/>
+      <c r="H134" s="21">
+        <v>0</v>
+      </c>
+      <c r="I134" s="21"/>
+    </row>
+    <row r="135" spans="1:9" ht="15">
+      <c r="A135" s="21"/>
+      <c r="B135" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C135" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D135" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E135" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F135" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G135" s="21"/>
+      <c r="H135" s="21">
+        <v>1</v>
+      </c>
+      <c r="I135" s="21"/>
+    </row>
+    <row r="136" spans="1:9" ht="15">
+      <c r="A136" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="B136" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="C136" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="D136" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E136" s="21"/>
+      <c r="F136" s="21"/>
+      <c r="G136" s="21"/>
+      <c r="H136" s="21"/>
+      <c r="I136" s="21"/>
+    </row>
+    <row r="137" spans="1:9" ht="15">
+      <c r="A137" s="21"/>
+      <c r="B137" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C137" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="D137" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="E137" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F137" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G137" s="21"/>
+      <c r="H137" s="21" t="s">
+        <v>443</v>
+      </c>
+      <c r="I137" s="21" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="15">
+      <c r="A138" s="21"/>
+      <c r="B138" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C138" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="D138" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E138" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F138" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G138" s="21"/>
+      <c r="H138" s="21"/>
+      <c r="I138" s="21"/>
+    </row>
+    <row r="139" spans="1:9" ht="15">
+      <c r="A139" s="21"/>
+      <c r="B139" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C139" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="D139" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="E139" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F139" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G139" s="21"/>
+      <c r="H139" s="21">
+        <v>69</v>
+      </c>
+      <c r="I139" s="21"/>
+    </row>
+    <row r="140" spans="1:9" ht="15">
+      <c r="A140" s="21"/>
+      <c r="B140" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C140" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="D140" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="E140" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F140" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G140" s="21"/>
+      <c r="H140" s="21">
+        <v>28</v>
+      </c>
+      <c r="I140" s="21"/>
+    </row>
+    <row r="141" spans="1:9" ht="15">
+      <c r="A141" s="21"/>
+      <c r="B141" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C141" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="D141" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="E141" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F141" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G141" s="21"/>
+      <c r="H141" s="21">
+        <v>55</v>
+      </c>
+      <c r="I141" s="21"/>
+    </row>
+    <row r="142" spans="1:9" ht="15">
+      <c r="A142" s="21"/>
+      <c r="B142" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C142" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="D142" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="E142" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F142" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G142" s="21"/>
+      <c r="H142" s="21">
+        <v>-148</v>
+      </c>
+      <c r="I142" s="21"/>
+    </row>
+    <row r="143" spans="1:9" ht="15">
+      <c r="A143" s="21"/>
+      <c r="B143" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C143" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="D143" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="E143" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F143" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G143" s="21"/>
+      <c r="H143" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I143" s="21"/>
+    </row>
+    <row r="144" spans="1:9" ht="15">
+      <c r="A144" s="21"/>
+      <c r="B144" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C144" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="D144" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="E144" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F144" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G144" s="21"/>
+      <c r="H144" s="21">
+        <v>0</v>
+      </c>
+      <c r="I144" s="21"/>
+    </row>
+    <row r="145" spans="1:9" ht="15">
+      <c r="A145" s="21"/>
+      <c r="B145" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C145" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="D145" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E145" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F145" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G145" s="21"/>
+      <c r="H145" s="21">
+        <v>0</v>
+      </c>
+      <c r="I145" s="21"/>
+    </row>
+    <row r="146" spans="1:9" ht="15">
+      <c r="A146" s="21"/>
+      <c r="B146" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C146" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D146" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E146" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F146" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G146" s="21"/>
+      <c r="H146" s="21">
+        <v>0</v>
+      </c>
+      <c r="I146" s="21"/>
+    </row>
+    <row r="147" spans="1:9" ht="15">
+      <c r="A147" s="21"/>
+      <c r="B147" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C147" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D147" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E147" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F147" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G147" s="21"/>
+      <c r="H147" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I147" s="21"/>
+    </row>
+    <row r="148" spans="1:9" ht="15">
+      <c r="A148" s="21"/>
+      <c r="B148" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C148" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D148" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E148" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F148" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G148" s="21"/>
+      <c r="H148" s="21">
+        <v>20</v>
+      </c>
+      <c r="I148" s="21"/>
+    </row>
+    <row r="149" spans="1:9" ht="15">
+      <c r="A149" s="21"/>
+      <c r="B149" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C149" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="D149" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E149" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F149" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G149" s="21"/>
+      <c r="H149" s="21">
+        <v>0</v>
+      </c>
+      <c r="I149" s="21"/>
+    </row>
+    <row r="150" spans="1:9" ht="15">
+      <c r="A150" s="21"/>
+      <c r="B150" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C150" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D150" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E150" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F150" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G150" s="21"/>
+      <c r="H150" s="21">
+        <v>1</v>
+      </c>
+      <c r="I150" s="21"/>
+    </row>
+    <row r="151" spans="1:9" ht="15">
+      <c r="A151" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="B151" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="C151" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="D151" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="E151" s="21"/>
+      <c r="F151" s="21"/>
+      <c r="G151" s="21"/>
+      <c r="H151" s="21"/>
+      <c r="I151" s="21"/>
+    </row>
+    <row r="152" spans="1:9" ht="15">
+      <c r="A152" s="21"/>
+      <c r="B152" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C152" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="D152" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="E152" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F152" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G152" s="21"/>
+      <c r="H152" s="21">
+        <v>60</v>
+      </c>
+      <c r="I152" s="21"/>
+    </row>
+    <row r="153" spans="1:9" ht="15">
+      <c r="A153" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="B153" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="C153" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="D153" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E153" s="21"/>
+      <c r="F153" s="21"/>
+      <c r="G153" s="21"/>
+      <c r="H153" s="21"/>
+      <c r="I153" s="21"/>
+    </row>
+    <row r="154" spans="1:9" ht="15">
+      <c r="A154" s="21"/>
+      <c r="B154" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C154" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="D154" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="E154" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F154" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="G154" s="21"/>
+      <c r="H154" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="I154" s="21"/>
+    </row>
+    <row r="155" spans="1:9" ht="15">
+      <c r="A155" s="21"/>
+      <c r="B155" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C155" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="D155" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="E155" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F155" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="G155" s="21"/>
+      <c r="H155" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="I155" s="21"/>
+    </row>
+    <row r="156" spans="1:9" ht="15">
+      <c r="A156" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="B156" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="C156" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="D156" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E156" s="21"/>
+      <c r="F156" s="21"/>
+      <c r="G156" s="21"/>
+      <c r="H156" s="21"/>
+      <c r="I156" s="21"/>
+    </row>
+    <row r="157" spans="1:9" ht="15">
+      <c r="A157" s="21"/>
+      <c r="B157" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C157" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="D157" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="E157" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F157" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G157" s="21"/>
+      <c r="H157" s="21" t="s">
+        <v>443</v>
+      </c>
+      <c r="I157" s="21" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="15">
+      <c r="A158" s="21"/>
+      <c r="B158" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C158" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="D158" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="E158" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F158" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G158" s="21"/>
+      <c r="H158" s="21">
+        <v>3</v>
+      </c>
+      <c r="I158" s="21"/>
+    </row>
+    <row r="159" spans="1:9" ht="15">
+      <c r="A159" s="21"/>
+      <c r="B159" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C159" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="D159" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="E159" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F159" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G159" s="21"/>
+      <c r="H159" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I159" s="21"/>
+    </row>
+    <row r="160" spans="1:9" ht="15">
+      <c r="A160" s="21"/>
+      <c r="B160" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C160" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="D160" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="E160" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F160" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G160" s="21"/>
+      <c r="H160" s="21">
+        <v>0</v>
+      </c>
+      <c r="I160" s="21"/>
+    </row>
+    <row r="161" spans="1:9" ht="15">
+      <c r="A161" s="21"/>
+      <c r="B161" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C161" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="D161" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E161" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F161" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G161" s="21"/>
+      <c r="H161" s="21">
+        <v>0</v>
+      </c>
+      <c r="I161" s="21"/>
+    </row>
+    <row r="162" spans="1:9" ht="15">
+      <c r="A162" s="21"/>
+      <c r="B162" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C162" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D162" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E162" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F162" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G162" s="21"/>
+      <c r="H162" s="21">
+        <v>0</v>
+      </c>
+      <c r="I162" s="21"/>
+    </row>
+    <row r="163" spans="1:9" ht="15">
+      <c r="A163" s="21"/>
+      <c r="B163" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C163" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D163" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E163" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F163" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G163" s="21"/>
+      <c r="H163" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I163" s="21"/>
+    </row>
+    <row r="164" spans="1:9" ht="15">
+      <c r="A164" s="21"/>
+      <c r="B164" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C164" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D164" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E164" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F164" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G164" s="21"/>
+      <c r="H164" s="21">
+        <v>20</v>
+      </c>
+      <c r="I164" s="21"/>
+    </row>
+    <row r="165" spans="1:9" ht="15">
+      <c r="A165" s="21"/>
+      <c r="B165" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C165" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="D165" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E165" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F165" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G165" s="21"/>
+      <c r="H165" s="21">
+        <v>0</v>
+      </c>
+      <c r="I165" s="21"/>
+    </row>
+    <row r="166" spans="1:9" ht="15">
+      <c r="A166" s="21"/>
+      <c r="B166" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C166" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D166" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E166" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F166" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G166" s="21"/>
+      <c r="H166" s="21">
+        <v>1</v>
+      </c>
+      <c r="I166" s="21"/>
+    </row>
+    <row r="167" spans="1:9" ht="15">
+      <c r="A167" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="B167" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="C167" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="D167" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E167" s="21"/>
+      <c r="F167" s="21"/>
+      <c r="G167" s="21"/>
+      <c r="H167" s="21"/>
+      <c r="I167" s="21"/>
+    </row>
+    <row r="168" spans="1:9" ht="15">
+      <c r="A168" s="21"/>
+      <c r="B168" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C168" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="D168" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="E168" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F168" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G168" s="21"/>
+      <c r="H168" s="21" t="s">
+        <v>447</v>
+      </c>
+      <c r="I168" s="21" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" ht="15">
+      <c r="A169" s="21"/>
+      <c r="B169" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C169" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="D169" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="E169" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F169" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G169" s="21"/>
+      <c r="H169" s="21">
+        <v>96</v>
+      </c>
+      <c r="I169" s="21"/>
+    </row>
+    <row r="170" spans="1:9" ht="15">
+      <c r="A170" s="21"/>
+      <c r="B170" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C170" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="D170" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="E170" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F170" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G170" s="21"/>
+      <c r="H170" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I170" s="21"/>
+    </row>
+    <row r="171" spans="1:9" ht="15">
+      <c r="A171" s="21"/>
+      <c r="B171" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C171" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="D171" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="E171" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F171" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G171" s="21"/>
+      <c r="H171" s="21">
+        <v>0</v>
+      </c>
+      <c r="I171" s="21"/>
+    </row>
+    <row r="172" spans="1:9" ht="15">
+      <c r="A172" s="21"/>
+      <c r="B172" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C172" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="D172" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E172" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F172" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G172" s="21"/>
+      <c r="H172" s="21">
+        <v>0</v>
+      </c>
+      <c r="I172" s="21"/>
+    </row>
+    <row r="173" spans="1:9" ht="15">
+      <c r="A173" s="21"/>
+      <c r="B173" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C173" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D173" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E173" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F173" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G173" s="21"/>
+      <c r="H173" s="21">
+        <v>0</v>
+      </c>
+      <c r="I173" s="21"/>
+    </row>
+    <row r="174" spans="1:9" ht="15">
+      <c r="A174" s="21"/>
+      <c r="B174" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C174" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D174" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E174" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F174" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G174" s="21"/>
+      <c r="H174" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I174" s="21"/>
+    </row>
+    <row r="175" spans="1:9" ht="15">
+      <c r="A175" s="21"/>
+      <c r="B175" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C175" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D175" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E175" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F175" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G175" s="21"/>
+      <c r="H175" s="21">
+        <v>20</v>
+      </c>
+      <c r="I175" s="21"/>
+    </row>
+    <row r="176" spans="1:9" ht="15">
+      <c r="A176" s="21"/>
+      <c r="B176" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C176" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="D176" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E176" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F176" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G176" s="21"/>
+      <c r="H176" s="21">
+        <v>0</v>
+      </c>
+      <c r="I176" s="21"/>
+    </row>
+    <row r="177" spans="1:9" ht="15">
+      <c r="A177" s="21"/>
+      <c r="B177" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C177" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D177" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E177" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F177" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G177" s="21"/>
+      <c r="H177" s="21">
+        <v>1</v>
+      </c>
+      <c r="I177" s="21"/>
+    </row>
+    <row r="178" spans="1:9" ht="15">
+      <c r="A178" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="B178" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="C178" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="D178" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E178" s="21"/>
+      <c r="F178" s="21"/>
+      <c r="G178" s="21"/>
+      <c r="H178" s="21"/>
+      <c r="I178" s="21"/>
+    </row>
+    <row r="179" spans="1:9" ht="15">
+      <c r="A179" s="21"/>
+      <c r="B179" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C179" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="D179" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="E179" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F179" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G179" s="21"/>
+      <c r="H179" s="21">
+        <v>13</v>
+      </c>
+      <c r="I179" s="21"/>
+    </row>
+    <row r="180" spans="1:9" ht="15">
+      <c r="A180" s="21"/>
+      <c r="B180" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C180" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="D180" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="E180" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F180" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G180" s="21"/>
+      <c r="H180" s="21">
+        <v>0</v>
+      </c>
+      <c r="I180" s="21"/>
+    </row>
+    <row r="181" spans="1:9" ht="15">
+      <c r="A181" s="21"/>
+      <c r="B181" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C181" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="D181" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="E181" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F181" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G181" s="21"/>
+      <c r="H181" s="21">
+        <v>0</v>
+      </c>
+      <c r="I181" s="21"/>
+    </row>
+    <row r="182" spans="1:9" ht="15">
+      <c r="A182" s="21"/>
+      <c r="B182" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C182" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="D182" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="E182" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F182" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G182" s="21"/>
+      <c r="H182" s="21">
+        <v>0</v>
+      </c>
+      <c r="I182" s="21"/>
+    </row>
+    <row r="183" spans="1:9" ht="15">
+      <c r="A183" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="B183" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="C183" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="D183" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E183" s="21"/>
+      <c r="F183" s="21"/>
+      <c r="G183" s="21"/>
+      <c r="H183" s="21"/>
+      <c r="I183" s="21"/>
+    </row>
+    <row r="184" spans="1:9" ht="15">
+      <c r="A184" s="21"/>
+      <c r="B184" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C184" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="D184" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="E184" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F184" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G184" s="21"/>
+      <c r="H184" s="21">
+        <v>30</v>
+      </c>
+      <c r="I184" s="21"/>
+    </row>
+    <row r="185" spans="1:9" ht="15">
+      <c r="A185" s="21"/>
+      <c r="B185" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C185" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="D185" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="E185" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F185" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G185" s="21"/>
+      <c r="H185" s="21">
+        <v>0</v>
+      </c>
+      <c r="I185" s="21"/>
+    </row>
+    <row r="186" spans="1:9" ht="15">
+      <c r="A186" s="21"/>
+      <c r="B186" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C186" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="D186" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="E186" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F186" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G186" s="21"/>
+      <c r="H186" s="21">
+        <v>0</v>
+      </c>
+      <c r="I186" s="21"/>
+    </row>
+    <row r="187" spans="1:9" ht="15">
+      <c r="A187" s="21"/>
+      <c r="B187" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C187" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="D187" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="E187" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F187" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G187" s="21"/>
+      <c r="H187" s="21">
+        <v>0</v>
+      </c>
+      <c r="I187" s="21"/>
+    </row>
+    <row r="188" spans="1:9" ht="15">
+      <c r="A188" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="B188" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="C188" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="D188" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="E188" s="21"/>
+      <c r="F188" s="21"/>
+      <c r="G188" s="21"/>
+      <c r="H188" s="21"/>
+      <c r="I188" s="21"/>
+    </row>
+    <row r="189" spans="1:9" ht="15">
+      <c r="A189" s="21"/>
+      <c r="B189" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C189" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="D189" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="E189" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F189" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="G189" s="21"/>
+      <c r="H189" s="21"/>
+      <c r="I189" s="21"/>
+    </row>
+    <row r="190" spans="1:9" ht="15">
+      <c r="A190" s="21"/>
+      <c r="B190" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C190" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="D190" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="E190" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F190" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G190" s="21"/>
+      <c r="H190" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I190" s="21"/>
+    </row>
+    <row r="191" spans="1:9" ht="15">
+      <c r="A191" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="B191" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="C191" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="D191" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E191" s="21"/>
+      <c r="F191" s="21"/>
+      <c r="G191" s="21"/>
+      <c r="H191" s="21"/>
+      <c r="I191" s="21"/>
+    </row>
+    <row r="192" spans="1:9" ht="15">
+      <c r="A192" s="21"/>
+      <c r="B192" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C192" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="D192" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="E192" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F192" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G192" s="21"/>
+      <c r="H192" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I192" s="21"/>
+    </row>
+    <row r="193" spans="1:9" ht="15">
+      <c r="A193" s="21"/>
+      <c r="B193" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C193" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="D193" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="E193" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F193" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G193" s="21"/>
+      <c r="H193" s="21" t="s">
+        <v>449</v>
+      </c>
+      <c r="I193" s="21" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" ht="15">
+      <c r="A194" s="21"/>
+      <c r="B194" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C194" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="D194" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="E194" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F194" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G194" s="21"/>
+      <c r="H194" s="21"/>
+      <c r="I194" s="21"/>
+    </row>
+    <row r="195" spans="1:9" ht="15">
+      <c r="A195" s="21"/>
+      <c r="B195" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C195" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D195" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E195" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F195" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G195" s="21"/>
+      <c r="H195" s="21" t="s">
+        <v>451</v>
+      </c>
+      <c r="I195" s="21" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" ht="15">
+      <c r="A196" s="21"/>
+      <c r="B196" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C196" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="D196" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="E196" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F196" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G196" s="21"/>
+      <c r="H196" s="21" t="s">
+        <v>453</v>
+      </c>
+      <c r="I196" s="21" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" ht="15">
+      <c r="A197" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="B197" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="C197" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="D197" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E197" s="21"/>
+      <c r="F197" s="21"/>
+      <c r="G197" s="21"/>
+      <c r="H197" s="21"/>
+      <c r="I197" s="21"/>
+    </row>
+    <row r="198" spans="1:9" ht="15">
+      <c r="A198" s="21"/>
+      <c r="B198" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C198" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D198" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E198" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F198" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G198" s="21"/>
+      <c r="H198" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="I198" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" ht="15">
+      <c r="A199" s="21"/>
+      <c r="B199" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C199" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="D199" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="E199" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F199" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G199" s="21"/>
+      <c r="H199" s="21">
+        <v>30</v>
+      </c>
+      <c r="I199" s="21"/>
+    </row>
+    <row r="200" spans="1:9" ht="15">
+      <c r="A200" s="21"/>
+      <c r="B200" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C200" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="D200" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E200" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F200" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G200" s="21"/>
+      <c r="H200" s="21">
+        <v>0</v>
+      </c>
+      <c r="I200" s="21"/>
+    </row>
+    <row r="201" spans="1:9" ht="15">
+      <c r="A201" s="21"/>
+      <c r="B201" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C201" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="D201" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E201" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F201" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G201" s="21"/>
+      <c r="H201" s="21">
+        <v>0</v>
+      </c>
+      <c r="I201" s="21"/>
+    </row>
+    <row r="202" spans="1:9" ht="15">
+      <c r="A202" s="21"/>
+      <c r="B202" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C202" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D202" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E202" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F202" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G202" s="21"/>
+      <c r="H202" s="21">
+        <v>0</v>
+      </c>
+      <c r="I202" s="21"/>
+    </row>
+    <row r="203" spans="1:9" ht="15">
+      <c r="A203" s="21"/>
+      <c r="B203" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C203" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D203" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E203" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F203" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G203" s="21"/>
+      <c r="H203" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I203" s="21"/>
+    </row>
+    <row r="204" spans="1:9" ht="15">
+      <c r="A204" s="21"/>
+      <c r="B204" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C204" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D204" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E204" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F204" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G204" s="21"/>
+      <c r="H204" s="21">
+        <v>15</v>
+      </c>
+      <c r="I204" s="21"/>
+    </row>
+    <row r="205" spans="1:9" ht="15">
+      <c r="A205" s="21"/>
+      <c r="B205" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C205" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="D205" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E205" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F205" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G205" s="21"/>
+      <c r="H205" s="21">
+        <v>0</v>
+      </c>
+      <c r="I205" s="21"/>
+    </row>
+    <row r="206" spans="1:9" ht="15">
+      <c r="A206" s="21"/>
+      <c r="B206" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C206" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D206" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E206" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F206" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G206" s="21"/>
+      <c r="H206" s="21">
+        <v>1</v>
+      </c>
+      <c r="I206" s="21"/>
+    </row>
+    <row r="207" spans="1:9" ht="15">
+      <c r="A207" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="B207" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C207" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D207" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E207" s="21"/>
+      <c r="F207" s="21"/>
+      <c r="G207" s="21"/>
+      <c r="H207" s="21"/>
+      <c r="I207" s="21"/>
+    </row>
+    <row r="208" spans="1:9" ht="15">
+      <c r="A208" s="21"/>
+      <c r="B208" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C208" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D208" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E208" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F208" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G208" s="21"/>
+      <c r="H208" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="I208" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" ht="15">
+      <c r="A209" s="21"/>
+      <c r="B209" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C209" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="D209" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E209" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F209" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G209" s="21"/>
+      <c r="H209" s="21">
+        <v>30</v>
+      </c>
+      <c r="I209" s="21"/>
+    </row>
+    <row r="210" spans="1:9" ht="15">
+      <c r="A210" s="21"/>
+      <c r="B210" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C210" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D210" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E210" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F210" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G210" s="21"/>
+      <c r="H210" s="21">
+        <v>0</v>
+      </c>
+      <c r="I210" s="21"/>
+    </row>
+    <row r="211" spans="1:9" ht="15">
+      <c r="A211" s="21"/>
+      <c r="B211" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C211" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D211" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E211" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F211" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G211" s="21"/>
+      <c r="H211" s="21">
+        <v>0</v>
+      </c>
+      <c r="I211" s="21"/>
+    </row>
+    <row r="212" spans="1:9" ht="15">
+      <c r="A212" s="21"/>
+      <c r="B212" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C212" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D212" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E212" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F212" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G212" s="21"/>
+      <c r="H212" s="21">
+        <v>0</v>
+      </c>
+      <c r="I212" s="21"/>
+    </row>
+    <row r="213" spans="1:9" ht="15">
+      <c r="A213" s="21"/>
+      <c r="B213" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C213" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D213" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E213" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F213" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G213" s="21"/>
+      <c r="H213" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I213" s="21"/>
+    </row>
+    <row r="214" spans="1:9" ht="15">
+      <c r="A214" s="21"/>
+      <c r="B214" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C214" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D214" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E214" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F214" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G214" s="21"/>
+      <c r="H214" s="21">
+        <v>15</v>
+      </c>
+      <c r="I214" s="21"/>
+    </row>
+    <row r="215" spans="1:9" ht="15">
+      <c r="A215" s="21"/>
+      <c r="B215" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C215" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D215" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E215" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F215" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G215" s="21"/>
+      <c r="H215" s="21">
+        <v>0</v>
+      </c>
+      <c r="I215" s="21"/>
+    </row>
+    <row r="216" spans="1:9" ht="15">
+      <c r="A216" s="21"/>
+      <c r="B216" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C216" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D216" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E216" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F216" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G216" s="21"/>
+      <c r="H216" s="21">
+        <v>1</v>
+      </c>
+      <c r="I216" s="21"/>
+    </row>
+    <row r="217" spans="1:9" ht="15">
+      <c r="A217" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="B217" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="C217" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="D217" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E217" s="21"/>
+      <c r="F217" s="21"/>
+      <c r="G217" s="21"/>
+      <c r="H217" s="21"/>
+      <c r="I217" s="21"/>
+    </row>
+    <row r="218" spans="1:9" ht="15">
+      <c r="A218" s="21"/>
+      <c r="B218" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C218" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="D218" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="E218" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F218" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G218" s="21"/>
+      <c r="H218" s="21"/>
+      <c r="I218" s="21"/>
+    </row>
+    <row r="219" spans="1:9" ht="15">
+      <c r="A219" s="21"/>
+      <c r="B219" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C219" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="D219" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="E219" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F219" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G219" s="21"/>
+      <c r="H219" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="I219" s="21"/>
+    </row>
+    <row r="220" spans="1:9" ht="15">
+      <c r="A220" s="21"/>
+      <c r="B220" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C220" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="D220" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="E220" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F220" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G220" s="21"/>
+      <c r="H220" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I220" s="21"/>
+    </row>
+    <row r="221" spans="1:9" ht="15">
+      <c r="A221" s="21"/>
+      <c r="B221" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C221" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="D221" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="E221" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F221" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G221" s="21"/>
+      <c r="H221" s="21">
+        <v>18</v>
+      </c>
+      <c r="I221" s="21"/>
+    </row>
+    <row r="222" spans="1:9" ht="15">
+      <c r="A222" s="21"/>
+      <c r="B222" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C222" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="D222" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="E222" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F222" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G222" s="21"/>
+      <c r="H222" s="21">
+        <v>9</v>
+      </c>
+      <c r="I222" s="21"/>
+    </row>
+    <row r="223" spans="1:9" ht="15">
+      <c r="A223" s="21"/>
+      <c r="B223" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C223" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="D223" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="E223" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F223" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G223" s="21"/>
+      <c r="H223" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I223" s="21"/>
+    </row>
+    <row r="224" spans="1:9" ht="15">
+      <c r="A224" s="21"/>
+      <c r="B224" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C224" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="D224" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="E224" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F224" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G224" s="21"/>
+      <c r="H224" s="21">
+        <v>18</v>
+      </c>
+      <c r="I224" s="21"/>
+    </row>
+    <row r="225" spans="1:9" ht="15">
+      <c r="A225" s="21"/>
+      <c r="B225" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C225" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="D225" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="E225" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F225" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G225" s="21"/>
+      <c r="H225" s="21">
+        <v>9</v>
+      </c>
+      <c r="I225" s="21"/>
+    </row>
+    <row r="226" spans="1:9" ht="15">
+      <c r="A226" s="21"/>
+      <c r="B226" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C226" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="D226" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="E226" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F226" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G226" s="21"/>
+      <c r="H226" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I226" s="21"/>
+    </row>
+    <row r="227" spans="1:9" ht="15">
+      <c r="A227" s="21"/>
+      <c r="B227" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C227" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="D227" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="E227" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F227" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G227" s="21"/>
+      <c r="H227" s="21">
+        <v>18</v>
+      </c>
+      <c r="I227" s="21"/>
+    </row>
+    <row r="228" spans="1:9" ht="15">
+      <c r="A228" s="21"/>
+      <c r="B228" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C228" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="D228" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="E228" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F228" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G228" s="21"/>
+      <c r="H228" s="21">
+        <v>9</v>
+      </c>
+      <c r="I228" s="21"/>
+    </row>
+    <row r="229" spans="1:9" ht="15">
+      <c r="A229" s="21"/>
+      <c r="B229" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C229" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="D229" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="E229" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F229" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G229" s="21"/>
+      <c r="H229" s="21">
+        <v>0</v>
+      </c>
+      <c r="I229" s="21"/>
+    </row>
+    <row r="230" spans="1:9" ht="15">
+      <c r="A230" s="21"/>
+      <c r="B230" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C230" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D230" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E230" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F230" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G230" s="21"/>
+      <c r="H230" s="21">
+        <v>0</v>
+      </c>
+      <c r="I230" s="21"/>
+    </row>
+    <row r="231" spans="1:9" ht="15">
+      <c r="A231" s="21"/>
+      <c r="B231" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C231" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D231" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E231" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F231" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G231" s="21"/>
+      <c r="H231" s="21">
+        <v>20</v>
+      </c>
+      <c r="I231" s="21"/>
+    </row>
+    <row r="232" spans="1:9" ht="15">
+      <c r="A232" s="21"/>
+      <c r="B232" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C232" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="D232" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E232" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F232" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G232" s="21"/>
+      <c r="H232" s="21">
+        <v>0</v>
+      </c>
+      <c r="I232" s="21"/>
+    </row>
+    <row r="233" spans="1:9" ht="15">
+      <c r="A233" s="21"/>
+      <c r="B233" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C233" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D233" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E233" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F233" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G233" s="21"/>
+      <c r="H233" s="21">
+        <v>1</v>
+      </c>
+      <c r="I233" s="21"/>
+    </row>
+    <row r="234" spans="1:9" ht="15">
+      <c r="A234" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="B234" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="C234" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="D234" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E234" s="21"/>
+      <c r="F234" s="21"/>
+      <c r="G234" s="21"/>
+      <c r="H234" s="21"/>
+      <c r="I234" s="21"/>
+    </row>
+    <row r="235" spans="1:9" ht="15">
+      <c r="A235" s="21"/>
+      <c r="B235" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C235" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="D235" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="E235" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F235" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G235" s="21"/>
+      <c r="H235" s="21"/>
+      <c r="I235" s="21"/>
+    </row>
+    <row r="236" spans="1:9" ht="15">
+      <c r="A236" s="21"/>
+      <c r="B236" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C236" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="D236" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="E236" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F236" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G236" s="21"/>
+      <c r="H236" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="I236" s="21"/>
+    </row>
+    <row r="237" spans="1:9" ht="15">
+      <c r="A237" s="21"/>
+      <c r="B237" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C237" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="D237" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="E237" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F237" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G237" s="21"/>
+      <c r="H237" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I237" s="21"/>
+    </row>
+    <row r="238" spans="1:9" ht="15">
+      <c r="A238" s="21"/>
+      <c r="B238" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C238" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="D238" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="E238" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F238" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G238" s="21"/>
+      <c r="H238" s="21">
+        <v>18</v>
+      </c>
+      <c r="I238" s="21"/>
+    </row>
+    <row r="239" spans="1:9" ht="15">
+      <c r="A239" s="21"/>
+      <c r="B239" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C239" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="D239" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="E239" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F239" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G239" s="21"/>
+      <c r="H239" s="21">
+        <v>9</v>
+      </c>
+      <c r="I239" s="21"/>
+    </row>
+    <row r="240" spans="1:9" ht="15">
+      <c r="A240" s="21"/>
+      <c r="B240" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C240" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="D240" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="E240" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F240" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G240" s="21"/>
+      <c r="H240" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I240" s="21"/>
+    </row>
+    <row r="241" spans="1:9" ht="15">
+      <c r="A241" s="21"/>
+      <c r="B241" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C241" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="D241" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="E241" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F241" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G241" s="21"/>
+      <c r="H241" s="21">
+        <v>18</v>
+      </c>
+      <c r="I241" s="21"/>
+    </row>
+    <row r="242" spans="1:9" ht="15">
+      <c r="A242" s="21"/>
+      <c r="B242" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C242" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="D242" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="E242" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F242" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G242" s="21"/>
+      <c r="H242" s="21">
+        <v>9</v>
+      </c>
+      <c r="I242" s="21"/>
+    </row>
+    <row r="243" spans="1:9" ht="15">
+      <c r="A243" s="21"/>
+      <c r="B243" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C243" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="D243" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="E243" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F243" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G243" s="21"/>
+      <c r="H243" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I243" s="21"/>
+    </row>
+    <row r="244" spans="1:9" ht="15">
+      <c r="A244" s="21"/>
+      <c r="B244" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C244" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="D244" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="E244" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F244" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G244" s="21"/>
+      <c r="H244" s="21">
+        <v>18</v>
+      </c>
+      <c r="I244" s="21"/>
+    </row>
+    <row r="245" spans="1:9" ht="15">
+      <c r="A245" s="21"/>
+      <c r="B245" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C245" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="D245" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="E245" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F245" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G245" s="21"/>
+      <c r="H245" s="21">
+        <v>9</v>
+      </c>
+      <c r="I245" s="21"/>
+    </row>
+    <row r="246" spans="1:9" ht="15">
+      <c r="A246" s="21"/>
+      <c r="B246" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C246" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="D246" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="E246" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F246" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G246" s="21"/>
+      <c r="H246" s="21">
+        <v>0</v>
+      </c>
+      <c r="I246" s="21"/>
+    </row>
+    <row r="247" spans="1:9" ht="15">
+      <c r="A247" s="21"/>
+      <c r="B247" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C247" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D247" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E247" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F247" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G247" s="21"/>
+      <c r="H247" s="21">
+        <v>0</v>
+      </c>
+      <c r="I247" s="21"/>
+    </row>
+    <row r="248" spans="1:9" ht="15">
+      <c r="A248" s="21"/>
+      <c r="B248" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C248" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D248" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E248" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F248" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G248" s="21"/>
+      <c r="H248" s="21">
+        <v>20</v>
+      </c>
+      <c r="I248" s="21"/>
+    </row>
+    <row r="249" spans="1:9" ht="15">
+      <c r="A249" s="21"/>
+      <c r="B249" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C249" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="D249" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E249" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F249" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G249" s="21"/>
+      <c r="H249" s="21">
+        <v>0</v>
+      </c>
+      <c r="I249" s="21"/>
+    </row>
+    <row r="250" spans="1:9" ht="15">
+      <c r="A250" s="21"/>
+      <c r="B250" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C250" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D250" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E250" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F250" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G250" s="21"/>
+      <c r="H250" s="21">
+        <v>1</v>
+      </c>
+      <c r="I250" s="21"/>
+    </row>
+    <row r="251" spans="1:9" ht="15">
+      <c r="A251" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="B251" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C251" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D251" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E251" s="21"/>
+      <c r="F251" s="21"/>
+      <c r="G251" s="21"/>
+      <c r="H251" s="21"/>
+      <c r="I251" s="21"/>
+    </row>
+    <row r="252" spans="1:9" ht="15">
+      <c r="A252" s="21"/>
+      <c r="B252" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C252" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D252" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E252" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F252" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G252" s="21"/>
+      <c r="H252" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="I252" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" ht="15">
+      <c r="A253" s="21"/>
+      <c r="B253" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C253" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="D253" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E253" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F253" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G253" s="21"/>
+      <c r="H253" s="21">
+        <v>30</v>
+      </c>
+      <c r="I253" s="21"/>
+    </row>
+    <row r="254" spans="1:9" ht="15">
+      <c r="A254" s="21"/>
+      <c r="B254" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C254" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D254" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E254" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F254" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G254" s="21"/>
+      <c r="H254" s="21">
+        <v>0</v>
+      </c>
+      <c r="I254" s="21"/>
+    </row>
+    <row r="255" spans="1:9" ht="15">
+      <c r="A255" s="21"/>
+      <c r="B255" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C255" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D255" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E255" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F255" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G255" s="21"/>
+      <c r="H255" s="21">
+        <v>0</v>
+      </c>
+      <c r="I255" s="21"/>
+    </row>
+    <row r="256" spans="1:9" ht="15">
+      <c r="A256" s="21"/>
+      <c r="B256" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C256" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D256" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E256" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F256" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G256" s="21"/>
+      <c r="H256" s="21">
+        <v>1</v>
+      </c>
+      <c r="I256" s="21"/>
+    </row>
+    <row r="257" spans="1:9" ht="15">
+      <c r="A257" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="B257" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="C257" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="D257" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E257" s="21"/>
+      <c r="F257" s="21"/>
+      <c r="G257" s="21"/>
+      <c r="H257" s="21"/>
+      <c r="I257" s="21"/>
+    </row>
+    <row r="258" spans="1:9" ht="15">
+      <c r="A258" s="21"/>
+      <c r="B258" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C258" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D258" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E258" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F258" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G258" s="21"/>
+      <c r="H258" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="I258" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" ht="15">
+      <c r="A259" s="21"/>
+      <c r="B259" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C259" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="D259" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="E259" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F259" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G259" s="21"/>
+      <c r="H259" s="21">
+        <v>30</v>
+      </c>
+      <c r="I259" s="21"/>
+    </row>
+    <row r="260" spans="1:9" ht="15">
+      <c r="A260" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="B260" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="C260" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="D260" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E260" s="21"/>
+      <c r="F260" s="21"/>
+      <c r="G260" s="21"/>
+      <c r="H260" s="21"/>
+      <c r="I260" s="21"/>
+    </row>
+    <row r="261" spans="1:9" ht="15">
+      <c r="A261" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="B261" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="C261" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="D261" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E261" s="21"/>
+      <c r="F261" s="21"/>
+      <c r="G261" s="21"/>
+      <c r="H261" s="21"/>
+      <c r="I261" s="21"/>
+    </row>
+    <row r="262" spans="1:9" ht="15">
+      <c r="A262" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="B262" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="C262" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="D262" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E262" s="21"/>
+      <c r="F262" s="21"/>
+      <c r="G262" s="21"/>
+      <c r="H262" s="21"/>
+      <c r="I262" s="21"/>
+    </row>
+    <row r="263" spans="1:9" ht="15">
+      <c r="A263" s="21"/>
+      <c r="B263" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C263" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="D263" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="E263" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F263" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G263" s="21"/>
+      <c r="H263" s="21"/>
+      <c r="I263" s="21"/>
+    </row>
+    <row r="264" spans="1:9" ht="15">
+      <c r="A264" s="21"/>
+      <c r="B264" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C264" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="D264" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="E264" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F264" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G264" s="21"/>
+      <c r="H264" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I264" s="21"/>
+    </row>
+    <row r="265" spans="1:9" ht="15">
+      <c r="A265" s="21"/>
+      <c r="B265" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C265" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="D265" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="E265" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F265" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G265" s="21"/>
+      <c r="H265" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I265" s="21"/>
+    </row>
+    <row r="266" spans="1:9" ht="15">
+      <c r="A266" s="21"/>
+      <c r="B266" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C266" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D266" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="E266" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F266" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G266" s="21"/>
+      <c r="H266" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I266" s="21"/>
+    </row>
+    <row r="267" spans="1:9" ht="15">
+      <c r="A267" s="21"/>
+      <c r="B267" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C267" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D267" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E267" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F267" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G267" s="21"/>
+      <c r="H267" s="21">
+        <v>0</v>
+      </c>
+      <c r="I267" s="21"/>
+    </row>
+    <row r="268" spans="1:9" ht="15">
+      <c r="A268" s="21"/>
+      <c r="B268" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C268" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D268" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="E268" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F268" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G268" s="21"/>
+      <c r="H268" s="21">
+        <v>0</v>
+      </c>
+      <c r="I268" s="21"/>
+    </row>
+    <row r="269" spans="1:9" ht="15">
+      <c r="A269" s="21"/>
+      <c r="B269" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C269" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D269" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E269" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F269" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G269" s="21"/>
+      <c r="H269" s="21">
+        <v>0</v>
+      </c>
+      <c r="I269" s="21"/>
+    </row>
+    <row r="270" spans="1:9" ht="15">
+      <c r="A270" s="21"/>
+      <c r="B270" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C270" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D270" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E270" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F270" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G270" s="21"/>
+      <c r="H270" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I270" s="21"/>
+    </row>
+    <row r="271" spans="1:9" ht="15">
+      <c r="A271" s="21"/>
+      <c r="B271" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C271" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D271" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E271" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F271" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G271" s="21"/>
+      <c r="H271" s="21">
+        <v>20</v>
+      </c>
+      <c r="I271" s="21"/>
+    </row>
+    <row r="272" spans="1:9" ht="15">
+      <c r="A272" s="21"/>
+      <c r="B272" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C272" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D272" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="E272" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F272" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G272" s="21"/>
+      <c r="H272" s="21">
+        <v>0</v>
+      </c>
+      <c r="I272" s="21"/>
+    </row>
+    <row r="273" spans="1:9" ht="15">
+      <c r="A273" s="21"/>
+      <c r="B273" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C273" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D273" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E273" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F273" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G273" s="21"/>
+      <c r="H273" s="21">
+        <v>1</v>
+      </c>
+      <c r="I273" s="21"/>
+    </row>
+    <row r="274" spans="1:9" ht="15">
+      <c r="A274" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="B274" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C274" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D274" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E274" s="21"/>
+      <c r="F274" s="21"/>
+      <c r="G274" s="21"/>
+      <c r="H274" s="21"/>
+      <c r="I274" s="21"/>
+    </row>
+    <row r="275" spans="1:9" ht="15">
+      <c r="A275" s="21"/>
+      <c r="B275" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C275" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="D275" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E275" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F275" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G275" s="21"/>
+      <c r="H275" s="21">
+        <v>90</v>
+      </c>
+      <c r="I275" s="21"/>
+    </row>
+    <row r="276" spans="1:9" ht="15">
+      <c r="A276" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="B276" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="C276" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="D276" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E276" s="21"/>
+      <c r="F276" s="21"/>
+      <c r="G276" s="21"/>
+      <c r="H276" s="21"/>
+      <c r="I276" s="21"/>
+    </row>
+    <row r="277" spans="1:9" ht="15">
+      <c r="A277" s="21"/>
+      <c r="B277" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C277" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="D277" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="E277" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F277" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G277" s="21"/>
+      <c r="H277" s="21" t="s">
+        <v>443</v>
+      </c>
+      <c r="I277" s="21" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" ht="15">
+      <c r="A278" s="21"/>
+      <c r="B278" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C278" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="D278" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="E278" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F278" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G278" s="21"/>
+      <c r="H278" s="21">
+        <v>4</v>
+      </c>
+      <c r="I278" s="21"/>
+    </row>
+    <row r="279" spans="1:9" ht="15">
+      <c r="A279" s="21"/>
+      <c r="B279" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C279" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="D279" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="E279" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F279" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G279" s="21"/>
+      <c r="H279" s="21">
+        <v>4</v>
+      </c>
+      <c r="I279" s="21"/>
+    </row>
+    <row r="280" spans="1:9" ht="15">
+      <c r="A280" s="21"/>
+      <c r="B280" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C280" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="D280" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="E280" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F280" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G280" s="21"/>
+      <c r="H280" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I280" s="21"/>
+    </row>
+    <row r="281" spans="1:9" ht="15">
+      <c r="A281" s="21"/>
+      <c r="B281" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C281" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="D281" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="E281" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F281" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G281" s="21"/>
+      <c r="H281" s="21">
+        <v>0</v>
+      </c>
+      <c r="I281" s="21"/>
+    </row>
+    <row r="282" spans="1:9" ht="15">
+      <c r="A282" s="21"/>
+      <c r="B282" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C282" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="D282" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E282" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F282" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G282" s="21"/>
+      <c r="H282" s="21">
+        <v>0</v>
+      </c>
+      <c r="I282" s="21"/>
+    </row>
+    <row r="283" spans="1:9" ht="15">
+      <c r="A283" s="21"/>
+      <c r="B283" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C283" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D283" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E283" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F283" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G283" s="21"/>
+      <c r="H283" s="21">
+        <v>0</v>
+      </c>
+      <c r="I283" s="21"/>
+    </row>
+    <row r="284" spans="1:9" ht="15">
+      <c r="A284" s="21"/>
+      <c r="B284" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C284" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D284" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E284" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F284" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G284" s="21"/>
+      <c r="H284" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I284" s="21"/>
+    </row>
+    <row r="285" spans="1:9" ht="15">
+      <c r="A285" s="21"/>
+      <c r="B285" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C285" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D285" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E285" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F285" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G285" s="21"/>
+      <c r="H285" s="21">
+        <v>20</v>
+      </c>
+      <c r="I285" s="21"/>
+    </row>
+    <row r="286" spans="1:9" ht="15">
+      <c r="A286" s="21"/>
+      <c r="B286" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C286" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="D286" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E286" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F286" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G286" s="21"/>
+      <c r="H286" s="21">
+        <v>0</v>
+      </c>
+      <c r="I286" s="21"/>
+    </row>
+    <row r="287" spans="1:9" ht="15">
+      <c r="A287" s="21"/>
+      <c r="B287" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C287" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D287" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E287" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F287" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G287" s="21"/>
+      <c r="H287" s="21">
+        <v>1</v>
+      </c>
+      <c r="I287" s="21"/>
+    </row>
+    <row r="288" spans="1:9" ht="15">
+      <c r="A288" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="B288" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="C288" s="21" t="s">
+        <v>380</v>
+      </c>
+      <c r="D288" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="E288" s="21"/>
+      <c r="F288" s="21"/>
+      <c r="G288" s="21"/>
+      <c r="H288" s="21"/>
+      <c r="I288" s="21"/>
+    </row>
+    <row r="289" spans="1:9" ht="15">
+      <c r="A289" s="21"/>
+      <c r="B289" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C289" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="D289" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="E289" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F289" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G289" s="21"/>
+      <c r="H289" s="21">
+        <v>10.76</v>
+      </c>
+      <c r="I289" s="21"/>
+    </row>
+    <row r="290" spans="1:9" ht="15">
+      <c r="A290" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="B290" s="21" t="s">
+        <v>383</v>
+      </c>
+      <c r="C290" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="D290" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E290" s="21"/>
+      <c r="F290" s="21"/>
+      <c r="G290" s="21"/>
+      <c r="H290" s="21"/>
+      <c r="I290" s="21"/>
+    </row>
+    <row r="291" spans="1:9" ht="15">
+      <c r="A291" s="21"/>
+      <c r="B291" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C291" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="D291" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="E291" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F291" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G291" s="21"/>
+      <c r="H291" s="21"/>
+      <c r="I291" s="21"/>
+    </row>
+    <row r="292" spans="1:9" ht="15">
+      <c r="A292" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="B292" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="C292" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="D292" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E292" s="21"/>
+      <c r="F292" s="21"/>
+      <c r="G292" s="21"/>
+      <c r="H292" s="21"/>
+      <c r="I292" s="21"/>
+    </row>
+    <row r="293" spans="1:9" ht="15">
+      <c r="A293" s="21"/>
+      <c r="B293" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C293" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="D293" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="E293" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F293" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G293" s="21"/>
+      <c r="H293" s="21"/>
+      <c r="I293" s="21"/>
+    </row>
+    <row r="294" spans="1:9" ht="15">
+      <c r="A294" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="B294" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="C294" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="D294" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E294" s="21"/>
+      <c r="F294" s="21"/>
+      <c r="G294" s="21"/>
+      <c r="H294" s="21"/>
+      <c r="I294" s="21"/>
+    </row>
+    <row r="295" spans="1:9" ht="15">
+      <c r="A295" s="21"/>
+      <c r="B295" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C295" s="21" t="s">
+        <v>392</v>
+      </c>
+      <c r="D295" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="E295" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F295" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G295" s="21"/>
+      <c r="H295" s="21"/>
+      <c r="I295" s="21"/>
+    </row>
+    <row r="296" spans="1:9" ht="15">
+      <c r="A296" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="B296" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="C296" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="D296" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E296" s="21"/>
+      <c r="F296" s="21"/>
+      <c r="G296" s="21"/>
+      <c r="H296" s="21"/>
+      <c r="I296" s="21"/>
+    </row>
+    <row r="297" spans="1:9" ht="15">
+      <c r="A297" s="21"/>
+      <c r="B297" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C297" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="D297" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="E297" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F297" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G297" s="21"/>
+      <c r="H297" s="21">
+        <v>25</v>
+      </c>
+      <c r="I297" s="21"/>
+    </row>
+    <row r="298" spans="1:9" ht="15">
+      <c r="A298" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="B298" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="C298" s="21" t="s">
+        <v>398</v>
+      </c>
+      <c r="D298" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E298" s="21"/>
+      <c r="F298" s="21"/>
+      <c r="G298" s="21"/>
+      <c r="H298" s="21"/>
+      <c r="I298" s="21"/>
+    </row>
+    <row r="299" spans="1:9" ht="15">
+      <c r="A299" s="21"/>
+      <c r="B299" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C299" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="D299" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E299" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F299" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G299" s="21"/>
+      <c r="H299" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="I299" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" ht="15">
+      <c r="A300" s="21"/>
+      <c r="B300" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C300" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="D300" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="E300" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F300" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G300" s="21"/>
+      <c r="H300" s="21">
+        <v>1</v>
+      </c>
+      <c r="I300" s="21"/>
+    </row>
+    <row r="301" spans="1:9" ht="15">
+      <c r="A301" s="21"/>
+      <c r="B301" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C301" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="D301" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="E301" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F301" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G301" s="21"/>
+      <c r="H301" s="21">
+        <v>0</v>
+      </c>
+      <c r="I301" s="21"/>
+    </row>
+    <row r="302" spans="1:9" ht="15">
+      <c r="A302" s="21"/>
+      <c r="B302" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C302" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="D302" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E302" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F302" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G302" s="21"/>
+      <c r="H302" s="21">
+        <v>0</v>
+      </c>
+      <c r="I302" s="21"/>
+    </row>
+    <row r="303" spans="1:9" ht="15">
+      <c r="A303" s="21"/>
+      <c r="B303" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C303" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D303" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E303" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F303" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G303" s="21"/>
+      <c r="H303" s="21">
+        <v>0</v>
+      </c>
+      <c r="I303" s="21"/>
+    </row>
+    <row r="304" spans="1:9" ht="15">
+      <c r="A304" s="21"/>
+      <c r="B304" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C304" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D304" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E304" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F304" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G304" s="21"/>
+      <c r="H304" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I304" s="21"/>
+    </row>
+    <row r="305" spans="1:9" ht="15">
+      <c r="A305" s="21"/>
+      <c r="B305" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C305" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D305" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E305" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F305" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G305" s="21"/>
+      <c r="H305" s="21">
+        <v>20</v>
+      </c>
+      <c r="I305" s="21"/>
+    </row>
+    <row r="306" spans="1:9" ht="15">
+      <c r="A306" s="21"/>
+      <c r="B306" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C306" s="21" t="s">
+        <v>403</v>
+      </c>
+      <c r="D306" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E306" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F306" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G306" s="21"/>
+      <c r="H306" s="21">
+        <v>0</v>
+      </c>
+      <c r="I306" s="21"/>
+    </row>
+    <row r="307" spans="1:9" ht="15">
+      <c r="A307" s="21"/>
+      <c r="B307" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C307" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D307" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E307" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F307" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G307" s="21"/>
+      <c r="H307" s="21">
+        <v>1</v>
+      </c>
+      <c r="I307" s="21"/>
+    </row>
+    <row r="308" spans="1:9" ht="15">
+      <c r="A308" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="B308" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="C308" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="D308" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E308" s="21"/>
+      <c r="F308" s="21"/>
+      <c r="G308" s="21"/>
+      <c r="H308" s="21"/>
+      <c r="I308" s="21"/>
+    </row>
+    <row r="309" spans="1:9" ht="15">
+      <c r="A309" s="21"/>
+      <c r="B309" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C309" s="21" t="s">
+        <v>406</v>
+      </c>
+      <c r="D309" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="E309" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F309" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G309" s="21"/>
+      <c r="H309" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="I309" s="21"/>
+    </row>
+    <row r="310" spans="1:9" ht="15">
+      <c r="A310" s="21"/>
+      <c r="B310" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C310" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="D310" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E310" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F310" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G310" s="21"/>
+      <c r="H310" s="21">
+        <v>0</v>
+      </c>
+      <c r="I310" s="21"/>
+    </row>
+    <row r="311" spans="1:9" ht="15">
+      <c r="A311" s="21"/>
+      <c r="B311" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C311" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D311" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="E311" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F311" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G311" s="21"/>
+      <c r="H311" s="21">
+        <v>0</v>
+      </c>
+      <c r="I311" s="21"/>
+    </row>
+    <row r="312" spans="1:9" ht="15">
+      <c r="A312" s="21"/>
+      <c r="B312" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C312" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D312" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E312" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F312" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G312" s="21"/>
+      <c r="H312" s="21">
+        <v>1</v>
+      </c>
+      <c r="I312" s="21"/>
+    </row>
+    <row r="313" spans="1:9" ht="15">
+      <c r="A313" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="B313" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="C313" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D313" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E313" s="21"/>
+      <c r="F313" s="21"/>
+      <c r="G313" s="21"/>
+      <c r="H313" s="21"/>
+      <c r="I313" s="21"/>
+    </row>
+    <row r="314" spans="1:9" ht="15">
+      <c r="A314" s="21"/>
+      <c r="B314" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C314" s="21" t="s">
+        <v>410</v>
+      </c>
+      <c r="D314" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E314" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F314" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G314" s="21"/>
+      <c r="H314" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="I314" s="21"/>
+    </row>
+    <row r="315" spans="1:9" ht="15">
+      <c r="A315" s="21"/>
+      <c r="B315" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C315" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D315" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E315" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F315" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G315" s="21"/>
+      <c r="H315" s="21">
+        <v>30</v>
+      </c>
+      <c r="I315" s="21"/>
+    </row>
+    <row r="316" spans="1:9" ht="15">
+      <c r="A316" s="21"/>
+      <c r="B316" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C316" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D316" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="E316" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F316" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G316" s="21"/>
+      <c r="H316" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="I316" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" ht="15">
+      <c r="A317" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="B317" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="C317" s="21" t="s">
+        <v>412</v>
+      </c>
+      <c r="D317" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E317" s="21"/>
+      <c r="F317" s="21"/>
+      <c r="G317" s="21"/>
+      <c r="H317" s="21"/>
+      <c r="I317" s="21"/>
+    </row>
+    <row r="318" spans="1:9" ht="15">
+      <c r="A318" s="21"/>
+      <c r="B318" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C318" s="21" t="s">
+        <v>413</v>
+      </c>
+      <c r="D318" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="E318" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F318" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G318" s="21"/>
+      <c r="H318" s="21" t="s">
+        <v>455</v>
+      </c>
+      <c r="I318" s="21" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" ht="15">
+      <c r="A319" s="21"/>
+      <c r="B319" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C319" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="D319" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="E319" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F319" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G319" s="21"/>
+      <c r="H319" s="21">
+        <v>1</v>
+      </c>
+      <c r="I319" s="21"/>
+    </row>
+    <row r="320" spans="1:9" ht="15">
+      <c r="A320" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="B320" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="C320" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="D320" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E320" s="21"/>
+      <c r="F320" s="21"/>
+      <c r="G320" s="21"/>
+      <c r="H320" s="21"/>
+      <c r="I320" s="21"/>
+    </row>
+    <row r="321" spans="1:9" ht="15">
+      <c r="A321" s="21"/>
+      <c r="B321" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C321" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="D321" s="21" t="s">
+        <v>420</v>
+      </c>
+      <c r="E321" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F321" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G321" s="21"/>
+      <c r="H321" s="21"/>
+      <c r="I321" s="21"/>
+    </row>
+    <row r="322" spans="1:9" ht="15">
+      <c r="A322" s="21"/>
+      <c r="B322" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C322" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="D322" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="E322" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F322" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G322" s="21"/>
+      <c r="H322" s="21"/>
+      <c r="I322" s="21"/>
+    </row>
+    <row r="323" spans="1:9" ht="15">
+      <c r="A323" s="21"/>
+      <c r="B323" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C323" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D323" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E323" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F323" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G323" s="21"/>
+      <c r="H323" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I323" s="21"/>
+    </row>
+    <row r="324" spans="1:9" ht="15">
+      <c r="A324" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="B324" s="21" t="s">
+        <v>423</v>
+      </c>
+      <c r="C324" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="D324" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="E324" s="21"/>
+      <c r="F324" s="21"/>
+      <c r="G324" s="21"/>
+      <c r="H324" s="21"/>
+      <c r="I324" s="21"/>
+    </row>
+    <row r="325" spans="1:9" ht="15">
+      <c r="A325" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="B325" s="21" t="s">
+        <v>425</v>
+      </c>
+      <c r="C325" s="21" t="s">
+        <v>426</v>
+      </c>
+      <c r="D325" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="E325" s="21"/>
+      <c r="F325" s="21"/>
+      <c r="G325" s="21"/>
+      <c r="H325" s="21"/>
+      <c r="I325" s="21"/>
+    </row>
+    <row r="326" spans="1:9" ht="15">
+      <c r="A326" s="21"/>
+      <c r="B326" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C326" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="D326" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="E326" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F326" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G326" s="21"/>
+      <c r="H326" s="21" t="s">
+        <v>457</v>
+      </c>
+      <c r="I326" s="21" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" ht="15">
+      <c r="A327" s="21"/>
+      <c r="B327" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C327" s="21" t="s">
+        <v>429</v>
+      </c>
+      <c r="D327" s="21" t="s">
+        <v>430</v>
+      </c>
+      <c r="E327" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F327" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G327" s="21"/>
+      <c r="H327" s="21" t="s">
+        <v>459</v>
+      </c>
+      <c r="I327" s="21" t="s">
+        <v>460</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>